--- a/investing spreadsheets/IBM.xlsx
+++ b/investing spreadsheets/IBM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30400" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -429,6 +429,21 @@
   <si>
     <t>INFY Y/Y</t>
   </si>
+  <si>
+    <t>Services Y/Y</t>
+  </si>
+  <si>
+    <t>Sales Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue decreasing every year since 2011</t>
+  </si>
+  <si>
+    <t>Accenture, Cognizant, Infosys Revenue growing</t>
+  </si>
+  <si>
+    <t>Hardware &gt; Consulting &gt; Software</t>
+  </si>
 </sst>
 </file>
 
@@ -754,7 +769,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -765,7 +780,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="12099290" y="0"/>
-          <a:ext cx="38100" cy="12534900"/>
+          <a:ext cx="38100" cy="13296900"/>
           <a:chOff x="5346000" y="0"/>
           <a:chExt cx="0" cy="7559999"/>
         </a:xfrm>
@@ -808,7 +823,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -819,7 +834,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="18775045" y="38100"/>
-          <a:ext cx="38100" cy="9353550"/>
+          <a:ext cx="38100" cy="10115550"/>
           <a:chOff x="5346000" y="0"/>
           <a:chExt cx="0" cy="7559999"/>
         </a:xfrm>
@@ -1177,16 +1192,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1001"/>
+  <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="38.83203125" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" customWidth="1"/>
@@ -1565,28 +1580,34 @@
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1600,7 +1621,6 @@
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8373,6 +8393,13 @@
       <c r="C1001" s="1"/>
       <c r="D1001" s="1"/>
       <c r="E1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8402,13 +8429,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ES1009"/>
+  <dimension ref="A1:ES1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomRight" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9113,7 +9140,7 @@
       <c r="R11" s="30"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19">
-        <f t="shared" ref="V11:Z11" si="2">W7/V7-1</f>
+        <f t="shared" ref="W11:Y11" si="2">W7/V7-1</f>
         <v>0.1674050260712745</v>
       </c>
       <c r="X11" s="19">
@@ -9152,7 +9179,7 @@
       <c r="R12" s="30"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19">
-        <f t="shared" ref="V12:Z12" si="3">W8/V8-1</f>
+        <f t="shared" ref="W12:Z12" si="3">W8/V8-1</f>
         <v>0.20013069759843161</v>
       </c>
       <c r="X12" s="19">
@@ -9191,7 +9218,7 @@
       <c r="R13" s="30"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19">
-        <f t="shared" ref="V13:Z13" si="4">W9/V9-1</f>
+        <f t="shared" ref="W13:Z13" si="4">W9/V9-1</f>
         <v>0.15775533852011248</v>
       </c>
       <c r="X13" s="19">
@@ -12657,7 +12684,7 @@
         <v>938</v>
       </c>
       <c r="AA34" s="16">
-        <f t="shared" ref="AA34:AO34" si="33">1500+(Z58*$AR$41)</f>
+        <f t="shared" ref="AA34:AO34" si="33">1500+(Z63*$AR$41)</f>
         <v>1183.05</v>
       </c>
       <c r="AB34" s="16">
@@ -14844,34 +14871,29 @@
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
+      <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
       <c r="AP46" s="14"/>
-      <c r="AQ46" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR46" s="17">
-        <f>AR44+AR45</f>
-        <v>195388.32740811523</v>
-      </c>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-      <c r="AU46" s="1"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="18"/>
       <c r="AV46" s="14"/>
       <c r="AW46" s="14"/>
       <c r="AX46" s="14"/>
@@ -14976,434 +14998,1087 @@
       <c r="ES46" s="14"/>
     </row>
     <row r="47" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>80</v>
+      <c r="A47" s="12"/>
+      <c r="B47" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="30">
-        <f t="shared" ref="G47:R47" si="48">G29/G21</f>
-        <v>0.47794018439397346</v>
-      </c>
-      <c r="H47" s="30">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19">
+        <f t="shared" ref="V47:Y48" si="48">W18/V18-1</f>
+        <v>-2.0882396534971481E-2</v>
+      </c>
+      <c r="X47" s="19">
         <f t="shared" si="48"/>
-        <v>0.50081091196407035</v>
-      </c>
-      <c r="I47" s="30">
+        <v>-3.0242376330883225E-2</v>
+      </c>
+      <c r="Y47" s="19">
         <f t="shared" si="48"/>
-        <v>0.48551145242666427</v>
-      </c>
-      <c r="J47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.53342456664178484</v>
-      </c>
-      <c r="K47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.48249106687085247</v>
-      </c>
-      <c r="L47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.49923128663399635</v>
-      </c>
-      <c r="M47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.48941908713692944</v>
-      </c>
-      <c r="N47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.51709130474204368</v>
-      </c>
-      <c r="O47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.46488974523656607</v>
-      </c>
-      <c r="P47" s="30">
-        <f t="shared" si="48"/>
-        <v>0.47942092000592917</v>
-      </c>
-      <c r="Q47" s="30">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="30">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="30">
-        <f t="shared" ref="Y47:AO47" si="49">Y29/Y21</f>
-        <v>0.50011315508712939</v>
-      </c>
-      <c r="Z47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.49772454796799687</v>
-      </c>
-      <c r="AA47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AD47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AE47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AH47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AJ47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AM47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AO47" s="30">
-        <f t="shared" si="49"/>
-        <v>0.5</v>
-      </c>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="14"/>
-      <c r="AT47" s="14"/>
-      <c r="AU47" s="14"/>
+        <v>-3.4376897060098832E-2</v>
+      </c>
+      <c r="Z47" s="19">
+        <f>Z18/Y18-1</f>
+        <v>-0.10349720690460362</v>
+      </c>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="16"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BC47" s="12"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+      <c r="BM47" s="12"/>
+      <c r="BN47" s="12"/>
+      <c r="BO47" s="12"/>
+      <c r="BP47" s="12"/>
+      <c r="BQ47" s="12"/>
+      <c r="BR47" s="12"/>
+      <c r="BS47" s="12"/>
+      <c r="BT47" s="12"/>
+      <c r="BU47" s="12"/>
+      <c r="BV47" s="12"/>
+      <c r="BW47" s="12"/>
+      <c r="BX47" s="12"/>
+      <c r="BY47" s="12"/>
+      <c r="BZ47" s="12"/>
+      <c r="CA47" s="12"/>
+      <c r="CB47" s="12"/>
+      <c r="CC47" s="12"/>
+      <c r="CD47" s="12"/>
+      <c r="CE47" s="12"/>
+      <c r="CF47" s="12"/>
+      <c r="CG47" s="12"/>
+      <c r="CH47" s="12"/>
+      <c r="CI47" s="12"/>
+      <c r="CJ47" s="12"/>
+      <c r="CK47" s="12"/>
+      <c r="CL47" s="12"/>
+      <c r="CM47" s="12"/>
+      <c r="CN47" s="12"/>
+      <c r="CO47" s="12"/>
+      <c r="CP47" s="12"/>
+      <c r="CQ47" s="12"/>
+      <c r="CR47" s="12"/>
+      <c r="CS47" s="12"/>
+      <c r="CT47" s="12"/>
+      <c r="CU47" s="12"/>
+      <c r="CV47" s="12"/>
+      <c r="CW47" s="12"/>
+      <c r="CX47" s="12"/>
+      <c r="CY47" s="12"/>
+      <c r="CZ47" s="12"/>
+      <c r="DA47" s="12"/>
+      <c r="DB47" s="12"/>
+      <c r="DC47" s="12"/>
+      <c r="DD47" s="12"/>
+      <c r="DE47" s="12"/>
+      <c r="DF47" s="12"/>
+      <c r="DG47" s="12"/>
+      <c r="DH47" s="12"/>
+      <c r="DI47" s="12"/>
+      <c r="DJ47" s="12"/>
+      <c r="DK47" s="12"/>
+      <c r="DL47" s="12"/>
+      <c r="DM47" s="12"/>
+      <c r="DN47" s="12"/>
+      <c r="DO47" s="12"/>
+      <c r="DP47" s="12"/>
+      <c r="DQ47" s="12"/>
+      <c r="DR47" s="12"/>
+      <c r="DS47" s="12"/>
+      <c r="DT47" s="12"/>
+      <c r="DU47" s="12"/>
+      <c r="DV47" s="12"/>
+      <c r="DW47" s="12"/>
+      <c r="DX47" s="12"/>
+      <c r="DY47" s="12"/>
+      <c r="DZ47" s="12"/>
+      <c r="EA47" s="12"/>
+      <c r="EB47" s="12"/>
+      <c r="EC47" s="12"/>
+      <c r="ED47" s="12"/>
+      <c r="EE47" s="12"/>
+      <c r="EF47" s="12"/>
+      <c r="EG47" s="12"/>
+      <c r="EH47" s="12"/>
+      <c r="EI47" s="12"/>
+      <c r="EJ47" s="12"/>
+      <c r="EK47" s="12"/>
+      <c r="EL47" s="12"/>
+      <c r="EM47" s="12"/>
+      <c r="EN47" s="12"/>
+      <c r="EO47" s="12"/>
+      <c r="EP47" s="12"/>
+      <c r="EQ47" s="12"/>
+      <c r="ER47" s="12"/>
+      <c r="ES47" s="12"/>
     </row>
     <row r="48" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
-        <v>81</v>
+      <c r="A48" s="12"/>
+      <c r="B48" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="30">
-        <f t="shared" ref="G48:R48" si="50">G36/G35</f>
-        <v>0.20521684475172847</v>
-      </c>
-      <c r="H48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.2050130939019828</v>
-      </c>
-      <c r="I48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.20775051593671176</v>
-      </c>
-      <c r="J48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.22248837536987459</v>
-      </c>
-      <c r="K48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="L48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.16516800757217226</v>
-      </c>
-      <c r="M48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.18194367752622861</v>
-      </c>
-      <c r="N48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.12534327187132208</v>
-      </c>
-      <c r="O48" s="30">
-        <f t="shared" si="50"/>
-        <v>-0.95159728944820909</v>
-      </c>
-      <c r="P48" s="30">
-        <f t="shared" si="50"/>
-        <v>0.17836065573770493</v>
-      </c>
-      <c r="Q48" s="30" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="30" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y48" s="30">
-        <f t="shared" ref="Y48:AO48" si="51">Y36/Y35</f>
-        <v>0.21184829380566397</v>
-      </c>
-      <c r="Z48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.1618587733600903</v>
-      </c>
-      <c r="AA48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AC48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AF48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AH48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AI48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AJ48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AK48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AM48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AN48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AO48" s="30">
-        <f t="shared" si="51"/>
-        <v>0.2</v>
-      </c>
-      <c r="AQ48" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR48" s="32">
-        <f>AR46/Main!J3</f>
-        <v>204.08223042418555</v>
-      </c>
-      <c r="AS48" s="14"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="14"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="19">
+        <f t="shared" si="48"/>
+        <v>-2.3806822050246201E-2</v>
+      </c>
+      <c r="X48" s="19">
+        <f t="shared" si="48"/>
+        <v>-0.10108336820570052</v>
+      </c>
+      <c r="Y48" s="19">
+        <f t="shared" si="48"/>
+        <v>-9.3182641080018613E-2</v>
+      </c>
+      <c r="Z48" s="19">
+        <f>Z19/Y19-1</f>
+        <v>-0.14533839089638645</v>
+      </c>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="16"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="19"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BC48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+      <c r="BN48" s="12"/>
+      <c r="BO48" s="12"/>
+      <c r="BP48" s="12"/>
+      <c r="BQ48" s="12"/>
+      <c r="BR48" s="12"/>
+      <c r="BS48" s="12"/>
+      <c r="BT48" s="12"/>
+      <c r="BU48" s="12"/>
+      <c r="BV48" s="12"/>
+      <c r="BW48" s="12"/>
+      <c r="BX48" s="12"/>
+      <c r="BY48" s="12"/>
+      <c r="BZ48" s="12"/>
+      <c r="CA48" s="12"/>
+      <c r="CB48" s="12"/>
+      <c r="CC48" s="12"/>
+      <c r="CD48" s="12"/>
+      <c r="CE48" s="12"/>
+      <c r="CF48" s="12"/>
+      <c r="CG48" s="12"/>
+      <c r="CH48" s="12"/>
+      <c r="CI48" s="12"/>
+      <c r="CJ48" s="12"/>
+      <c r="CK48" s="12"/>
+      <c r="CL48" s="12"/>
+      <c r="CM48" s="12"/>
+      <c r="CN48" s="12"/>
+      <c r="CO48" s="12"/>
+      <c r="CP48" s="12"/>
+      <c r="CQ48" s="12"/>
+      <c r="CR48" s="12"/>
+      <c r="CS48" s="12"/>
+      <c r="CT48" s="12"/>
+      <c r="CU48" s="12"/>
+      <c r="CV48" s="12"/>
+      <c r="CW48" s="12"/>
+      <c r="CX48" s="12"/>
+      <c r="CY48" s="12"/>
+      <c r="CZ48" s="12"/>
+      <c r="DA48" s="12"/>
+      <c r="DB48" s="12"/>
+      <c r="DC48" s="12"/>
+      <c r="DD48" s="12"/>
+      <c r="DE48" s="12"/>
+      <c r="DF48" s="12"/>
+      <c r="DG48" s="12"/>
+      <c r="DH48" s="12"/>
+      <c r="DI48" s="12"/>
+      <c r="DJ48" s="12"/>
+      <c r="DK48" s="12"/>
+      <c r="DL48" s="12"/>
+      <c r="DM48" s="12"/>
+      <c r="DN48" s="12"/>
+      <c r="DO48" s="12"/>
+      <c r="DP48" s="12"/>
+      <c r="DQ48" s="12"/>
+      <c r="DR48" s="12"/>
+      <c r="DS48" s="12"/>
+      <c r="DT48" s="12"/>
+      <c r="DU48" s="12"/>
+      <c r="DV48" s="12"/>
+      <c r="DW48" s="12"/>
+      <c r="DX48" s="12"/>
+      <c r="DY48" s="12"/>
+      <c r="DZ48" s="12"/>
+      <c r="EA48" s="12"/>
+      <c r="EB48" s="12"/>
+      <c r="EC48" s="12"/>
+      <c r="ED48" s="12"/>
+      <c r="EE48" s="12"/>
+      <c r="EF48" s="12"/>
+      <c r="EG48" s="12"/>
+      <c r="EH48" s="12"/>
+      <c r="EI48" s="12"/>
+      <c r="EJ48" s="12"/>
+      <c r="EK48" s="12"/>
+      <c r="EL48" s="12"/>
+      <c r="EM48" s="12"/>
+      <c r="EN48" s="12"/>
+      <c r="EO48" s="12"/>
+      <c r="EP48" s="12"/>
+      <c r="EQ48" s="12"/>
+      <c r="ER48" s="12"/>
+      <c r="ES48" s="12"/>
     </row>
     <row r="49" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="1"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="AQ49" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR49" s="32">
-        <f>Main!J2</f>
-        <v>159.4</v>
-      </c>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="16"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="18"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="14"/>
+      <c r="AX49" s="14"/>
+      <c r="AY49" s="14"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14"/>
+      <c r="BB49" s="14"/>
+      <c r="BC49" s="14"/>
+      <c r="BD49" s="14"/>
+      <c r="BE49" s="14"/>
+      <c r="BF49" s="14"/>
+      <c r="BG49" s="14"/>
+      <c r="BH49" s="14"/>
+      <c r="BI49" s="14"/>
+      <c r="BJ49" s="14"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="14"/>
+      <c r="BN49" s="14"/>
+      <c r="BO49" s="14"/>
+      <c r="BP49" s="14"/>
+      <c r="BQ49" s="14"/>
+      <c r="BR49" s="14"/>
+      <c r="BS49" s="14"/>
+      <c r="BT49" s="14"/>
+      <c r="BU49" s="14"/>
+      <c r="BV49" s="14"/>
+      <c r="BW49" s="14"/>
+      <c r="BX49" s="14"/>
+      <c r="BY49" s="14"/>
+      <c r="BZ49" s="14"/>
+      <c r="CA49" s="14"/>
+      <c r="CB49" s="14"/>
+      <c r="CC49" s="14"/>
+      <c r="CD49" s="14"/>
+      <c r="CE49" s="14"/>
+      <c r="CF49" s="14"/>
+      <c r="CG49" s="14"/>
+      <c r="CH49" s="14"/>
+      <c r="CI49" s="14"/>
+      <c r="CJ49" s="14"/>
+      <c r="CK49" s="14"/>
+      <c r="CL49" s="14"/>
+      <c r="CM49" s="14"/>
+      <c r="CN49" s="14"/>
+      <c r="CO49" s="14"/>
+      <c r="CP49" s="14"/>
+      <c r="CQ49" s="14"/>
+      <c r="CR49" s="14"/>
+      <c r="CS49" s="14"/>
+      <c r="CT49" s="14"/>
+      <c r="CU49" s="14"/>
+      <c r="CV49" s="14"/>
+      <c r="CW49" s="14"/>
+      <c r="CX49" s="14"/>
+      <c r="CY49" s="14"/>
+      <c r="CZ49" s="14"/>
+      <c r="DA49" s="14"/>
+      <c r="DB49" s="14"/>
+      <c r="DC49" s="14"/>
+      <c r="DD49" s="14"/>
+      <c r="DE49" s="14"/>
+      <c r="DF49" s="14"/>
+      <c r="DG49" s="14"/>
+      <c r="DH49" s="14"/>
+      <c r="DI49" s="14"/>
+      <c r="DJ49" s="14"/>
+      <c r="DK49" s="14"/>
+      <c r="DL49" s="14"/>
+      <c r="DM49" s="14"/>
+      <c r="DN49" s="14"/>
+      <c r="DO49" s="14"/>
+      <c r="DP49" s="14"/>
+      <c r="DQ49" s="14"/>
+      <c r="DR49" s="14"/>
+      <c r="DS49" s="14"/>
+      <c r="DT49" s="14"/>
+      <c r="DU49" s="14"/>
+      <c r="DV49" s="14"/>
+      <c r="DW49" s="14"/>
+      <c r="DX49" s="14"/>
+      <c r="DY49" s="14"/>
+      <c r="DZ49" s="14"/>
+      <c r="EA49" s="14"/>
+      <c r="EB49" s="14"/>
+      <c r="EC49" s="14"/>
+      <c r="ED49" s="14"/>
+      <c r="EE49" s="14"/>
+      <c r="EF49" s="14"/>
+      <c r="EG49" s="14"/>
+      <c r="EH49" s="14"/>
+      <c r="EI49" s="14"/>
+      <c r="EJ49" s="14"/>
+      <c r="EK49" s="14"/>
+      <c r="EL49" s="14"/>
+      <c r="EM49" s="14"/>
+      <c r="EN49" s="14"/>
+      <c r="EO49" s="14"/>
+      <c r="EP49" s="14"/>
+      <c r="EQ49" s="14"/>
+      <c r="ER49" s="14"/>
+      <c r="ES49" s="14"/>
     </row>
     <row r="50" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="21">
-        <v>121000</v>
-      </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="AR50" s="19">
-        <f>AR48/AR49-1</f>
-        <v>0.28031512185812768</v>
-      </c>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="16"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="18"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="14"/>
+      <c r="BC50" s="14"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="14"/>
+      <c r="BF50" s="14"/>
+      <c r="BG50" s="14"/>
+      <c r="BH50" s="14"/>
+      <c r="BI50" s="14"/>
+      <c r="BJ50" s="14"/>
+      <c r="BK50" s="14"/>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="14"/>
+      <c r="BN50" s="14"/>
+      <c r="BO50" s="14"/>
+      <c r="BP50" s="14"/>
+      <c r="BQ50" s="14"/>
+      <c r="BR50" s="14"/>
+      <c r="BS50" s="14"/>
+      <c r="BT50" s="14"/>
+      <c r="BU50" s="14"/>
+      <c r="BV50" s="14"/>
+      <c r="BW50" s="14"/>
+      <c r="BX50" s="14"/>
+      <c r="BY50" s="14"/>
+      <c r="BZ50" s="14"/>
+      <c r="CA50" s="14"/>
+      <c r="CB50" s="14"/>
+      <c r="CC50" s="14"/>
+      <c r="CD50" s="14"/>
+      <c r="CE50" s="14"/>
+      <c r="CF50" s="14"/>
+      <c r="CG50" s="14"/>
+      <c r="CH50" s="14"/>
+      <c r="CI50" s="14"/>
+      <c r="CJ50" s="14"/>
+      <c r="CK50" s="14"/>
+      <c r="CL50" s="14"/>
+      <c r="CM50" s="14"/>
+      <c r="CN50" s="14"/>
+      <c r="CO50" s="14"/>
+      <c r="CP50" s="14"/>
+      <c r="CQ50" s="14"/>
+      <c r="CR50" s="14"/>
+      <c r="CS50" s="14"/>
+      <c r="CT50" s="14"/>
+      <c r="CU50" s="14"/>
+      <c r="CV50" s="14"/>
+      <c r="CW50" s="14"/>
+      <c r="CX50" s="14"/>
+      <c r="CY50" s="14"/>
+      <c r="CZ50" s="14"/>
+      <c r="DA50" s="14"/>
+      <c r="DB50" s="14"/>
+      <c r="DC50" s="14"/>
+      <c r="DD50" s="14"/>
+      <c r="DE50" s="14"/>
+      <c r="DF50" s="14"/>
+      <c r="DG50" s="14"/>
+      <c r="DH50" s="14"/>
+      <c r="DI50" s="14"/>
+      <c r="DJ50" s="14"/>
+      <c r="DK50" s="14"/>
+      <c r="DL50" s="14"/>
+      <c r="DM50" s="14"/>
+      <c r="DN50" s="14"/>
+      <c r="DO50" s="14"/>
+      <c r="DP50" s="14"/>
+      <c r="DQ50" s="14"/>
+      <c r="DR50" s="14"/>
+      <c r="DS50" s="14"/>
+      <c r="DT50" s="14"/>
+      <c r="DU50" s="14"/>
+      <c r="DV50" s="14"/>
+      <c r="DW50" s="14"/>
+      <c r="DX50" s="14"/>
+      <c r="DY50" s="14"/>
+      <c r="DZ50" s="14"/>
+      <c r="EA50" s="14"/>
+      <c r="EB50" s="14"/>
+      <c r="EC50" s="14"/>
+      <c r="ED50" s="14"/>
+      <c r="EE50" s="14"/>
+      <c r="EF50" s="14"/>
+      <c r="EG50" s="14"/>
+      <c r="EH50" s="14"/>
+      <c r="EI50" s="14"/>
+      <c r="EJ50" s="14"/>
+      <c r="EK50" s="14"/>
+      <c r="EL50" s="14"/>
+      <c r="EM50" s="14"/>
+      <c r="EN50" s="14"/>
+      <c r="EO50" s="14"/>
+      <c r="EP50" s="14"/>
+      <c r="EQ50" s="14"/>
+      <c r="ER50" s="14"/>
+      <c r="ES50" s="14"/>
     </row>
     <row r="51" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="AR51" s="1"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR51" s="17">
+        <f>AR44+AR45</f>
+        <v>195388.32740811523</v>
+      </c>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="14"/>
+      <c r="BC51" s="14"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="14"/>
+      <c r="BG51" s="14"/>
+      <c r="BH51" s="14"/>
+      <c r="BI51" s="14"/>
+      <c r="BJ51" s="14"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="14"/>
+      <c r="BM51" s="14"/>
+      <c r="BN51" s="14"/>
+      <c r="BO51" s="14"/>
+      <c r="BP51" s="14"/>
+      <c r="BQ51" s="14"/>
+      <c r="BR51" s="14"/>
+      <c r="BS51" s="14"/>
+      <c r="BT51" s="14"/>
+      <c r="BU51" s="14"/>
+      <c r="BV51" s="14"/>
+      <c r="BW51" s="14"/>
+      <c r="BX51" s="14"/>
+      <c r="BY51" s="14"/>
+      <c r="BZ51" s="14"/>
+      <c r="CA51" s="14"/>
+      <c r="CB51" s="14"/>
+      <c r="CC51" s="14"/>
+      <c r="CD51" s="14"/>
+      <c r="CE51" s="14"/>
+      <c r="CF51" s="14"/>
+      <c r="CG51" s="14"/>
+      <c r="CH51" s="14"/>
+      <c r="CI51" s="14"/>
+      <c r="CJ51" s="14"/>
+      <c r="CK51" s="14"/>
+      <c r="CL51" s="14"/>
+      <c r="CM51" s="14"/>
+      <c r="CN51" s="14"/>
+      <c r="CO51" s="14"/>
+      <c r="CP51" s="14"/>
+      <c r="CQ51" s="14"/>
+      <c r="CR51" s="14"/>
+      <c r="CS51" s="14"/>
+      <c r="CT51" s="14"/>
+      <c r="CU51" s="14"/>
+      <c r="CV51" s="14"/>
+      <c r="CW51" s="14"/>
+      <c r="CX51" s="14"/>
+      <c r="CY51" s="14"/>
+      <c r="CZ51" s="14"/>
+      <c r="DA51" s="14"/>
+      <c r="DB51" s="14"/>
+      <c r="DC51" s="14"/>
+      <c r="DD51" s="14"/>
+      <c r="DE51" s="14"/>
+      <c r="DF51" s="14"/>
+      <c r="DG51" s="14"/>
+      <c r="DH51" s="14"/>
+      <c r="DI51" s="14"/>
+      <c r="DJ51" s="14"/>
+      <c r="DK51" s="14"/>
+      <c r="DL51" s="14"/>
+      <c r="DM51" s="14"/>
+      <c r="DN51" s="14"/>
+      <c r="DO51" s="14"/>
+      <c r="DP51" s="14"/>
+      <c r="DQ51" s="14"/>
+      <c r="DR51" s="14"/>
+      <c r="DS51" s="14"/>
+      <c r="DT51" s="14"/>
+      <c r="DU51" s="14"/>
+      <c r="DV51" s="14"/>
+      <c r="DW51" s="14"/>
+      <c r="DX51" s="14"/>
+      <c r="DY51" s="14"/>
+      <c r="DZ51" s="14"/>
+      <c r="EA51" s="14"/>
+      <c r="EB51" s="14"/>
+      <c r="EC51" s="14"/>
+      <c r="ED51" s="14"/>
+      <c r="EE51" s="14"/>
+      <c r="EF51" s="14"/>
+      <c r="EG51" s="14"/>
+      <c r="EH51" s="14"/>
+      <c r="EI51" s="14"/>
+      <c r="EJ51" s="14"/>
+      <c r="EK51" s="14"/>
+      <c r="EL51" s="14"/>
+      <c r="EM51" s="14"/>
+      <c r="EN51" s="14"/>
+      <c r="EO51" s="14"/>
+      <c r="EP51" s="14"/>
+      <c r="EQ51" s="14"/>
+      <c r="ER51" s="14"/>
+      <c r="ES51" s="14"/>
     </row>
     <row r="52" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
+      <c r="G52" s="30">
+        <f t="shared" ref="G52:R52" si="49">G29/G21</f>
+        <v>0.47794018439397346</v>
+      </c>
+      <c r="H52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.50081091196407035</v>
+      </c>
+      <c r="I52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.48551145242666427</v>
+      </c>
+      <c r="J52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.53342456664178484</v>
+      </c>
+      <c r="K52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.48249106687085247</v>
+      </c>
+      <c r="L52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.49923128663399635</v>
+      </c>
+      <c r="M52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.48941908713692944</v>
+      </c>
+      <c r="N52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.51709130474204368</v>
+      </c>
+      <c r="O52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.46488974523656607</v>
+      </c>
+      <c r="P52" s="30">
+        <f t="shared" si="49"/>
+        <v>0.47942092000592917</v>
+      </c>
+      <c r="Q52" s="30">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="30">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="30">
+        <f t="shared" ref="Y52:AO52" si="50">Y29/Y21</f>
+        <v>0.50011315508712939</v>
+      </c>
+      <c r="Z52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.49772454796799687</v>
+      </c>
+      <c r="AA52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AL52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO52" s="30">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
       <c r="AR52" s="1"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="14"/>
     </row>
     <row r="53" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="AR53" s="1"/>
+      <c r="G53" s="30">
+        <f t="shared" ref="G53:R53" si="51">G36/G35</f>
+        <v>0.20521684475172847</v>
+      </c>
+      <c r="H53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.2050130939019828</v>
+      </c>
+      <c r="I53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.20775051593671176</v>
+      </c>
+      <c r="J53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.22248837536987459</v>
+      </c>
+      <c r="K53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.16516800757217226</v>
+      </c>
+      <c r="M53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.18194367752622861</v>
+      </c>
+      <c r="N53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.12534327187132208</v>
+      </c>
+      <c r="O53" s="30">
+        <f t="shared" si="51"/>
+        <v>-0.95159728944820909</v>
+      </c>
+      <c r="P53" s="30">
+        <f t="shared" si="51"/>
+        <v>0.17836065573770493</v>
+      </c>
+      <c r="Q53" s="30" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="30" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y53" s="30">
+        <f t="shared" ref="Y53:AO53" si="52">Y36/Y35</f>
+        <v>0.21184829380566397</v>
+      </c>
+      <c r="Z53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.1618587733600903</v>
+      </c>
+      <c r="AA53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AN53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO53" s="30">
+        <f t="shared" si="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR53" s="32">
+        <f>AR51/Main!J3</f>
+        <v>204.08223042418555</v>
+      </c>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="14"/>
     </row>
     <row r="54" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="27">
-        <v>1.3704000000000001</v>
-      </c>
-      <c r="H54" s="27">
-        <v>1.3715999999999999</v>
-      </c>
-      <c r="I54" s="27">
-        <v>1.3251999999999999</v>
-      </c>
-      <c r="J54" s="27">
-        <v>1.2487999999999999</v>
-      </c>
-      <c r="K54" s="27">
-        <v>1.1268</v>
-      </c>
-      <c r="L54" s="27">
-        <v>1.1069</v>
-      </c>
-      <c r="M54" s="27">
-        <v>1.1125</v>
-      </c>
-      <c r="N54" s="27">
-        <v>1.0952</v>
-      </c>
-      <c r="O54" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P54" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q54" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R54" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AR54" s="1"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="AQ54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR54" s="32">
+        <f>Main!J2</f>
+        <v>159.4</v>
+      </c>
     </row>
     <row r="55" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -15412,42 +16087,25 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="30">
-        <f t="shared" ref="K55:R55" si="52">K54/G54-1</f>
-        <v>-0.17775831873905434</v>
-      </c>
-      <c r="L55" s="30">
-        <f t="shared" si="52"/>
-        <v>-0.19298629337999418</v>
-      </c>
-      <c r="M55" s="30">
-        <f t="shared" si="52"/>
-        <v>-0.16050407485662532</v>
-      </c>
-      <c r="N55" s="30">
-        <f t="shared" si="52"/>
-        <v>-0.12299807815502883</v>
-      </c>
-      <c r="O55" s="30">
-        <f t="shared" si="52"/>
-        <v>-2.3784167554135593E-2</v>
-      </c>
-      <c r="P55" s="30">
-        <f t="shared" si="52"/>
-        <v>-6.233625440419055E-3</v>
-      </c>
-      <c r="Q55" s="30">
-        <f t="shared" si="52"/>
-        <v>-1.1235955056179692E-2</v>
-      </c>
-      <c r="R55" s="30">
-        <f t="shared" si="52"/>
-        <v>4.3827611395179655E-3</v>
-      </c>
-      <c r="AR55" s="1"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="21">
+        <v>121000</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="AR55" s="19">
+        <f>AR53/AR54-1</f>
+        <v>0.28031512185812768</v>
+      </c>
     </row>
     <row r="56" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -15459,7 +16117,9 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="N56" s="30">
+        <v>0.01</v>
+      </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -15467,9 +16127,7 @@
       <c r="AR56" s="1"/>
     </row>
     <row r="57" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -15486,77 +16144,10 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19">
-        <f t="shared" ref="Z57:AO57" si="53">Z34/Z58</f>
-        <v>-2.9594573276542042E-2</v>
-      </c>
-      <c r="AA57" s="19">
-        <f t="shared" si="53"/>
-        <v>-6.321429670628427E-2</v>
-      </c>
-      <c r="AB57" s="19">
-        <f t="shared" si="53"/>
-        <v>-0.22826949832949089</v>
-      </c>
-      <c r="AC57" s="19">
-        <f t="shared" si="53"/>
-        <v>0.20043313240616228</v>
-      </c>
-      <c r="AD57" s="19">
-        <f t="shared" si="53"/>
-        <v>7.8088275378517286E-2</v>
-      </c>
-      <c r="AE57" s="19">
-        <f t="shared" si="53"/>
-        <v>5.1474913933836658E-2</v>
-      </c>
-      <c r="AF57" s="19">
-        <f t="shared" si="53"/>
-        <v>3.9828829003018817E-2</v>
-      </c>
-      <c r="AG57" s="19">
-        <f t="shared" si="53"/>
-        <v>3.329440026329173E-2</v>
-      </c>
-      <c r="AH57" s="19">
-        <f t="shared" si="53"/>
-        <v>2.9111535070473454E-2</v>
-      </c>
-      <c r="AI57" s="19">
-        <f t="shared" si="53"/>
-        <v>2.6204160773052477E-2</v>
-      </c>
-      <c r="AJ57" s="19">
-        <f t="shared" si="53"/>
-        <v>2.4065859653485688E-2</v>
-      </c>
-      <c r="AK57" s="19">
-        <f t="shared" si="53"/>
-        <v>2.242696951927799E-2</v>
-      </c>
-      <c r="AL57" s="19">
-        <f t="shared" si="53"/>
-        <v>2.1130705266231831E-2</v>
-      </c>
-      <c r="AM57" s="19">
-        <f t="shared" si="53"/>
-        <v>2.0079692842297044E-2</v>
-      </c>
-      <c r="AN57" s="19">
-        <f t="shared" si="53"/>
-        <v>1.9210263446236407E-2</v>
-      </c>
-      <c r="AO57" s="19">
-        <f t="shared" si="53"/>
-        <v>1.8479031516949612E-2</v>
-      </c>
       <c r="AR57" s="1"/>
     </row>
     <row r="58" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -15568,1015 +16159,459 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="26">
-        <f>N59-N74</f>
-        <v>-31695</v>
-      </c>
+      <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="Z58" s="17">
-        <f>+N58</f>
+      <c r="AR58" s="1"/>
+    </row>
+    <row r="59" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="27">
+        <v>1.3704000000000001</v>
+      </c>
+      <c r="H59" s="27">
+        <v>1.3715999999999999</v>
+      </c>
+      <c r="I59" s="27">
+        <v>1.3251999999999999</v>
+      </c>
+      <c r="J59" s="27">
+        <v>1.2487999999999999</v>
+      </c>
+      <c r="K59" s="27">
+        <v>1.1268</v>
+      </c>
+      <c r="L59" s="27">
+        <v>1.1069</v>
+      </c>
+      <c r="M59" s="27">
+        <v>1.1125</v>
+      </c>
+      <c r="N59" s="27">
+        <v>1.0952</v>
+      </c>
+      <c r="O59" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P59" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q59" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R59" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR59" s="1"/>
+    </row>
+    <row r="60" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="1"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="30">
+        <f t="shared" ref="K60:R60" si="53">K59/G59-1</f>
+        <v>-0.17775831873905434</v>
+      </c>
+      <c r="L60" s="30">
+        <f t="shared" si="53"/>
+        <v>-0.19298629337999418</v>
+      </c>
+      <c r="M60" s="30">
+        <f t="shared" si="53"/>
+        <v>-0.16050407485662532</v>
+      </c>
+      <c r="N60" s="30">
+        <f t="shared" si="53"/>
+        <v>-0.12299807815502883</v>
+      </c>
+      <c r="O60" s="30">
+        <f t="shared" si="53"/>
+        <v>-2.3784167554135593E-2</v>
+      </c>
+      <c r="P60" s="30">
+        <f t="shared" si="53"/>
+        <v>-6.233625440419055E-3</v>
+      </c>
+      <c r="Q60" s="30">
+        <f t="shared" si="53"/>
+        <v>-1.1235955056179692E-2</v>
+      </c>
+      <c r="R60" s="30">
+        <f t="shared" si="53"/>
+        <v>4.3827611395179655E-3</v>
+      </c>
+      <c r="AR60" s="1"/>
+    </row>
+    <row r="61" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="1"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="AR61" s="1"/>
+    </row>
+    <row r="62" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19">
+        <f t="shared" ref="Z62:AO62" si="54">Z34/Z63</f>
+        <v>-2.9594573276542042E-2</v>
+      </c>
+      <c r="AA62" s="19">
+        <f t="shared" si="54"/>
+        <v>-6.321429670628427E-2</v>
+      </c>
+      <c r="AB62" s="19">
+        <f t="shared" si="54"/>
+        <v>-0.22826949832949089</v>
+      </c>
+      <c r="AC62" s="19">
+        <f t="shared" si="54"/>
+        <v>0.20043313240616228</v>
+      </c>
+      <c r="AD62" s="19">
+        <f t="shared" si="54"/>
+        <v>7.8088275378517286E-2</v>
+      </c>
+      <c r="AE62" s="19">
+        <f t="shared" si="54"/>
+        <v>5.1474913933836658E-2</v>
+      </c>
+      <c r="AF62" s="19">
+        <f t="shared" si="54"/>
+        <v>3.9828829003018817E-2</v>
+      </c>
+      <c r="AG62" s="19">
+        <f t="shared" si="54"/>
+        <v>3.329440026329173E-2</v>
+      </c>
+      <c r="AH62" s="19">
+        <f t="shared" si="54"/>
+        <v>2.9111535070473454E-2</v>
+      </c>
+      <c r="AI62" s="19">
+        <f t="shared" si="54"/>
+        <v>2.6204160773052477E-2</v>
+      </c>
+      <c r="AJ62" s="19">
+        <f t="shared" si="54"/>
+        <v>2.4065859653485688E-2</v>
+      </c>
+      <c r="AK62" s="19">
+        <f t="shared" si="54"/>
+        <v>2.242696951927799E-2</v>
+      </c>
+      <c r="AL62" s="19">
+        <f t="shared" si="54"/>
+        <v>2.1130705266231831E-2</v>
+      </c>
+      <c r="AM62" s="19">
+        <f t="shared" si="54"/>
+        <v>2.0079692842297044E-2</v>
+      </c>
+      <c r="AN62" s="19">
+        <f t="shared" si="54"/>
+        <v>1.9210263446236407E-2</v>
+      </c>
+      <c r="AO62" s="19">
+        <f t="shared" si="54"/>
+        <v>1.8479031516949612E-2</v>
+      </c>
+      <c r="AR62" s="1"/>
+    </row>
+    <row r="63" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="26">
+        <f>N64-N79</f>
         <v>-31695</v>
       </c>
-      <c r="AA58" s="17">
-        <f t="shared" ref="AA58:AO58" si="54">+Z58+AA37</f>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="Z63" s="17">
+        <f>+N63</f>
+        <v>-31695</v>
+      </c>
+      <c r="AA63" s="17">
+        <f t="shared" ref="AA63:AO63" si="55">+Z63+AA37</f>
         <v>-18714.912</v>
       </c>
-      <c r="AB58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AB63" s="17">
+        <f t="shared" si="55"/>
         <v>-5751.3197760000003</v>
       </c>
-      <c r="AC58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AC63" s="17">
+        <f t="shared" si="55"/>
         <v>7196.848070592001</v>
       </c>
-      <c r="AD58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AD63" s="17">
+        <f t="shared" si="55"/>
         <v>20130.659475908738</v>
       </c>
-      <c r="AE58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AE63" s="17">
+        <f t="shared" si="55"/>
         <v>33051.179006260485</v>
       </c>
-      <c r="AF58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AF63" s="17">
+        <f t="shared" si="55"/>
         <v>45959.467950309605</v>
       </c>
-      <c r="AG58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AG63" s="17">
+        <f t="shared" si="55"/>
         <v>58856.584410791125</v>
       </c>
-      <c r="AH58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AH63" s="17">
+        <f t="shared" si="55"/>
         <v>71743.583395787718</v>
       </c>
-      <c r="AI58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AI63" s="17">
+        <f t="shared" si="55"/>
         <v>84621.516909567174</v>
       </c>
-      <c r="AJ58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AJ63" s="17">
+        <f t="shared" si="55"/>
         <v>97491.434042990732</v>
       </c>
-      <c r="AK58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AK63" s="17">
+        <f t="shared" si="55"/>
         <v>110354.38106350022</v>
       </c>
-      <c r="AL58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AL63" s="17">
+        <f t="shared" si="55"/>
         <v>123211.40150469211</v>
       </c>
-      <c r="AM58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AM63" s="17">
+        <f t="shared" si="55"/>
         <v>136063.53625548672</v>
       </c>
-      <c r="AN58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AN63" s="17">
+        <f t="shared" si="55"/>
         <v>148911.82364890008</v>
       </c>
-      <c r="AO58" s="17">
-        <f t="shared" si="54"/>
+      <c r="AO63" s="17">
+        <f t="shared" si="55"/>
         <v>161757.29955042707</v>
       </c>
-      <c r="AR58" s="1"/>
-    </row>
-    <row r="59" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17" t="s">
+      <c r="AR63" s="1"/>
+    </row>
+    <row r="64" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26">
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26">
         <f>7686+508</f>
         <v>8194</v>
       </c>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17"/>
-      <c r="AC59" s="17"/>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
-      <c r="AG59" s="17"/>
-      <c r="AH59" s="17"/>
-      <c r="AI59" s="17"/>
-      <c r="AJ59" s="17"/>
-      <c r="AK59" s="17"/>
-      <c r="AL59" s="17"/>
-      <c r="AM59" s="17"/>
-      <c r="AN59" s="17"/>
-      <c r="AO59" s="17"/>
-      <c r="AP59" s="17"/>
-      <c r="AQ59" s="17"/>
-      <c r="AR59" s="17"/>
-      <c r="AS59" s="17"/>
-      <c r="AT59" s="17"/>
-      <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
-      <c r="AW59" s="17"/>
-      <c r="AX59" s="17"/>
-      <c r="AY59" s="17"/>
-      <c r="AZ59" s="17"/>
-      <c r="BA59" s="17"/>
-      <c r="BB59" s="17"/>
-      <c r="BC59" s="17"/>
-      <c r="BD59" s="17"/>
-      <c r="BE59" s="17"/>
-      <c r="BF59" s="17"/>
-      <c r="BG59" s="17"/>
-      <c r="BH59" s="17"/>
-      <c r="BI59" s="17"/>
-      <c r="BJ59" s="17"/>
-      <c r="BK59" s="17"/>
-      <c r="BL59" s="17"/>
-      <c r="BM59" s="17"/>
-      <c r="BN59" s="17"/>
-      <c r="BO59" s="17"/>
-      <c r="BP59" s="17"/>
-      <c r="BQ59" s="17"/>
-      <c r="BR59" s="17"/>
-      <c r="BS59" s="17"/>
-      <c r="BT59" s="17"/>
-      <c r="BU59" s="17"/>
-      <c r="BV59" s="17"/>
-      <c r="BW59" s="17"/>
-      <c r="BX59" s="17"/>
-      <c r="BY59" s="17"/>
-      <c r="BZ59" s="17"/>
-      <c r="CA59" s="17"/>
-      <c r="CB59" s="17"/>
-      <c r="CC59" s="17"/>
-      <c r="CD59" s="17"/>
-      <c r="CE59" s="17"/>
-      <c r="CF59" s="17"/>
-      <c r="CG59" s="17"/>
-      <c r="CH59" s="17"/>
-      <c r="CI59" s="17"/>
-      <c r="CJ59" s="17"/>
-      <c r="CK59" s="17"/>
-      <c r="CL59" s="17"/>
-      <c r="CM59" s="17"/>
-      <c r="CN59" s="17"/>
-      <c r="CO59" s="17"/>
-      <c r="CP59" s="17"/>
-      <c r="CQ59" s="17"/>
-      <c r="CR59" s="17"/>
-      <c r="CS59" s="17"/>
-      <c r="CT59" s="17"/>
-      <c r="CU59" s="17"/>
-      <c r="CV59" s="17"/>
-      <c r="CW59" s="17"/>
-      <c r="CX59" s="17"/>
-      <c r="CY59" s="17"/>
-      <c r="CZ59" s="17"/>
-      <c r="DA59" s="17"/>
-      <c r="DB59" s="17"/>
-      <c r="DC59" s="17"/>
-      <c r="DD59" s="17"/>
-      <c r="DE59" s="17"/>
-      <c r="DF59" s="17"/>
-      <c r="DG59" s="17"/>
-      <c r="DH59" s="17"/>
-      <c r="DI59" s="17"/>
-      <c r="DJ59" s="17"/>
-      <c r="DK59" s="17"/>
-      <c r="DL59" s="17"/>
-      <c r="DM59" s="17"/>
-      <c r="DN59" s="17"/>
-      <c r="DO59" s="17"/>
-      <c r="DP59" s="17"/>
-      <c r="DQ59" s="17"/>
-      <c r="DR59" s="17"/>
-      <c r="DS59" s="17"/>
-      <c r="DT59" s="17"/>
-      <c r="DU59" s="17"/>
-      <c r="DV59" s="17"/>
-      <c r="DW59" s="17"/>
-      <c r="DX59" s="17"/>
-      <c r="DY59" s="17"/>
-      <c r="DZ59" s="17"/>
-      <c r="EA59" s="17"/>
-      <c r="EB59" s="17"/>
-      <c r="EC59" s="17"/>
-      <c r="ED59" s="17"/>
-      <c r="EE59" s="17"/>
-      <c r="EF59" s="17"/>
-      <c r="EG59" s="17"/>
-      <c r="EH59" s="17"/>
-      <c r="EI59" s="17"/>
-      <c r="EJ59" s="17"/>
-      <c r="EK59" s="17"/>
-      <c r="EL59" s="17"/>
-      <c r="EM59" s="17"/>
-      <c r="EN59" s="17"/>
-      <c r="EO59" s="17"/>
-      <c r="EP59" s="17"/>
-      <c r="EQ59" s="17"/>
-      <c r="ER59" s="17"/>
-      <c r="ES59" s="17"/>
-    </row>
-    <row r="60" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21">
-        <v>8333</v>
-      </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
-      <c r="AD60" s="16"/>
-      <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
-      <c r="AI60" s="16"/>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="16"/>
-      <c r="AL60" s="16"/>
-      <c r="AM60" s="16"/>
-      <c r="AN60" s="16"/>
-      <c r="AO60" s="16"/>
-      <c r="AP60" s="16"/>
-      <c r="AQ60" s="16"/>
-      <c r="AR60" s="16"/>
-      <c r="AS60" s="16"/>
-      <c r="AT60" s="16"/>
-      <c r="AU60" s="16"/>
-      <c r="AV60" s="16"/>
-      <c r="AW60" s="16"/>
-      <c r="AX60" s="16"/>
-      <c r="AY60" s="16"/>
-      <c r="AZ60" s="16"/>
-      <c r="BA60" s="16"/>
-      <c r="BB60" s="16"/>
-      <c r="BC60" s="16"/>
-      <c r="BD60" s="16"/>
-      <c r="BE60" s="16"/>
-      <c r="BF60" s="16"/>
-      <c r="BG60" s="16"/>
-      <c r="BH60" s="16"/>
-      <c r="BI60" s="16"/>
-      <c r="BJ60" s="16"/>
-      <c r="BK60" s="16"/>
-      <c r="BL60" s="16"/>
-      <c r="BM60" s="16"/>
-      <c r="BN60" s="16"/>
-      <c r="BO60" s="16"/>
-      <c r="BP60" s="16"/>
-      <c r="BQ60" s="16"/>
-      <c r="BR60" s="16"/>
-      <c r="BS60" s="16"/>
-      <c r="BT60" s="16"/>
-      <c r="BU60" s="16"/>
-      <c r="BV60" s="16"/>
-      <c r="BW60" s="16"/>
-      <c r="BX60" s="16"/>
-      <c r="BY60" s="16"/>
-      <c r="BZ60" s="16"/>
-      <c r="CA60" s="16"/>
-      <c r="CB60" s="16"/>
-      <c r="CC60" s="16"/>
-      <c r="CD60" s="16"/>
-      <c r="CE60" s="16"/>
-      <c r="CF60" s="16"/>
-      <c r="CG60" s="16"/>
-      <c r="CH60" s="16"/>
-      <c r="CI60" s="16"/>
-      <c r="CJ60" s="16"/>
-      <c r="CK60" s="16"/>
-      <c r="CL60" s="16"/>
-      <c r="CM60" s="16"/>
-      <c r="CN60" s="16"/>
-      <c r="CO60" s="16"/>
-      <c r="CP60" s="16"/>
-      <c r="CQ60" s="16"/>
-      <c r="CR60" s="16"/>
-      <c r="CS60" s="16"/>
-      <c r="CT60" s="16"/>
-      <c r="CU60" s="16"/>
-      <c r="CV60" s="16"/>
-      <c r="CW60" s="16"/>
-      <c r="CX60" s="16"/>
-      <c r="CY60" s="16"/>
-      <c r="CZ60" s="16"/>
-      <c r="DA60" s="16"/>
-      <c r="DB60" s="16"/>
-      <c r="DC60" s="16"/>
-      <c r="DD60" s="16"/>
-      <c r="DE60" s="16"/>
-      <c r="DF60" s="16"/>
-      <c r="DG60" s="16"/>
-      <c r="DH60" s="16"/>
-      <c r="DI60" s="16"/>
-      <c r="DJ60" s="16"/>
-      <c r="DK60" s="16"/>
-      <c r="DL60" s="16"/>
-      <c r="DM60" s="16"/>
-      <c r="DN60" s="16"/>
-      <c r="DO60" s="16"/>
-      <c r="DP60" s="16"/>
-      <c r="DQ60" s="16"/>
-      <c r="DR60" s="16"/>
-      <c r="DS60" s="16"/>
-      <c r="DT60" s="16"/>
-      <c r="DU60" s="16"/>
-      <c r="DV60" s="16"/>
-      <c r="DW60" s="16"/>
-      <c r="DX60" s="16"/>
-      <c r="DY60" s="16"/>
-      <c r="DZ60" s="16"/>
-      <c r="EA60" s="16"/>
-      <c r="EB60" s="16"/>
-      <c r="EC60" s="16"/>
-      <c r="ED60" s="16"/>
-      <c r="EE60" s="16"/>
-      <c r="EF60" s="16"/>
-      <c r="EG60" s="16"/>
-      <c r="EH60" s="16"/>
-      <c r="EI60" s="16"/>
-      <c r="EJ60" s="16"/>
-      <c r="EK60" s="16"/>
-      <c r="EL60" s="16"/>
-      <c r="EM60" s="16"/>
-      <c r="EN60" s="16"/>
-      <c r="EO60" s="16"/>
-      <c r="EP60" s="16"/>
-      <c r="EQ60" s="16"/>
-      <c r="ER60" s="16"/>
-      <c r="ES60" s="16"/>
-    </row>
-    <row r="61" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21">
-        <v>19020</v>
-      </c>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16"/>
-      <c r="AH61" s="16"/>
-      <c r="AI61" s="16"/>
-      <c r="AJ61" s="16"/>
-      <c r="AK61" s="16"/>
-      <c r="AL61" s="16"/>
-      <c r="AM61" s="16"/>
-      <c r="AN61" s="16"/>
-      <c r="AO61" s="16"/>
-      <c r="AP61" s="16"/>
-      <c r="AQ61" s="16"/>
-      <c r="AR61" s="16"/>
-      <c r="AS61" s="16"/>
-      <c r="AT61" s="16"/>
-      <c r="AU61" s="16"/>
-      <c r="AV61" s="16"/>
-      <c r="AW61" s="16"/>
-      <c r="AX61" s="16"/>
-      <c r="AY61" s="16"/>
-      <c r="AZ61" s="16"/>
-      <c r="BA61" s="16"/>
-      <c r="BB61" s="16"/>
-      <c r="BC61" s="16"/>
-      <c r="BD61" s="16"/>
-      <c r="BE61" s="16"/>
-      <c r="BF61" s="16"/>
-      <c r="BG61" s="16"/>
-      <c r="BH61" s="16"/>
-      <c r="BI61" s="16"/>
-      <c r="BJ61" s="16"/>
-      <c r="BK61" s="16"/>
-      <c r="BL61" s="16"/>
-      <c r="BM61" s="16"/>
-      <c r="BN61" s="16"/>
-      <c r="BO61" s="16"/>
-      <c r="BP61" s="16"/>
-      <c r="BQ61" s="16"/>
-      <c r="BR61" s="16"/>
-      <c r="BS61" s="16"/>
-      <c r="BT61" s="16"/>
-      <c r="BU61" s="16"/>
-      <c r="BV61" s="16"/>
-      <c r="BW61" s="16"/>
-      <c r="BX61" s="16"/>
-      <c r="BY61" s="16"/>
-      <c r="BZ61" s="16"/>
-      <c r="CA61" s="16"/>
-      <c r="CB61" s="16"/>
-      <c r="CC61" s="16"/>
-      <c r="CD61" s="16"/>
-      <c r="CE61" s="16"/>
-      <c r="CF61" s="16"/>
-      <c r="CG61" s="16"/>
-      <c r="CH61" s="16"/>
-      <c r="CI61" s="16"/>
-      <c r="CJ61" s="16"/>
-      <c r="CK61" s="16"/>
-      <c r="CL61" s="16"/>
-      <c r="CM61" s="16"/>
-      <c r="CN61" s="16"/>
-      <c r="CO61" s="16"/>
-      <c r="CP61" s="16"/>
-      <c r="CQ61" s="16"/>
-      <c r="CR61" s="16"/>
-      <c r="CS61" s="16"/>
-      <c r="CT61" s="16"/>
-      <c r="CU61" s="16"/>
-      <c r="CV61" s="16"/>
-      <c r="CW61" s="16"/>
-      <c r="CX61" s="16"/>
-      <c r="CY61" s="16"/>
-      <c r="CZ61" s="16"/>
-      <c r="DA61" s="16"/>
-      <c r="DB61" s="16"/>
-      <c r="DC61" s="16"/>
-      <c r="DD61" s="16"/>
-      <c r="DE61" s="16"/>
-      <c r="DF61" s="16"/>
-      <c r="DG61" s="16"/>
-      <c r="DH61" s="16"/>
-      <c r="DI61" s="16"/>
-      <c r="DJ61" s="16"/>
-      <c r="DK61" s="16"/>
-      <c r="DL61" s="16"/>
-      <c r="DM61" s="16"/>
-      <c r="DN61" s="16"/>
-      <c r="DO61" s="16"/>
-      <c r="DP61" s="16"/>
-      <c r="DQ61" s="16"/>
-      <c r="DR61" s="16"/>
-      <c r="DS61" s="16"/>
-      <c r="DT61" s="16"/>
-      <c r="DU61" s="16"/>
-      <c r="DV61" s="16"/>
-      <c r="DW61" s="16"/>
-      <c r="DX61" s="16"/>
-      <c r="DY61" s="16"/>
-      <c r="DZ61" s="16"/>
-      <c r="EA61" s="16"/>
-      <c r="EB61" s="16"/>
-      <c r="EC61" s="16"/>
-      <c r="ED61" s="16"/>
-      <c r="EE61" s="16"/>
-      <c r="EF61" s="16"/>
-      <c r="EG61" s="16"/>
-      <c r="EH61" s="16"/>
-      <c r="EI61" s="16"/>
-      <c r="EJ61" s="16"/>
-      <c r="EK61" s="16"/>
-      <c r="EL61" s="16"/>
-      <c r="EM61" s="16"/>
-      <c r="EN61" s="16"/>
-      <c r="EO61" s="16"/>
-      <c r="EP61" s="16"/>
-      <c r="EQ61" s="16"/>
-      <c r="ER61" s="16"/>
-      <c r="ES61" s="16"/>
-    </row>
-    <row r="62" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21">
-        <v>1201</v>
-      </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="16"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="16"/>
-      <c r="AI62" s="16"/>
-      <c r="AJ62" s="16"/>
-      <c r="AK62" s="16"/>
-      <c r="AL62" s="16"/>
-      <c r="AM62" s="16"/>
-      <c r="AN62" s="16"/>
-      <c r="AO62" s="16"/>
-      <c r="AP62" s="16"/>
-      <c r="AQ62" s="16"/>
-      <c r="AR62" s="16"/>
-      <c r="AS62" s="16"/>
-      <c r="AT62" s="16"/>
-      <c r="AU62" s="16"/>
-      <c r="AV62" s="16"/>
-      <c r="AW62" s="16"/>
-      <c r="AX62" s="16"/>
-      <c r="AY62" s="16"/>
-      <c r="AZ62" s="16"/>
-      <c r="BA62" s="16"/>
-      <c r="BB62" s="16"/>
-      <c r="BC62" s="16"/>
-      <c r="BD62" s="16"/>
-      <c r="BE62" s="16"/>
-      <c r="BF62" s="16"/>
-      <c r="BG62" s="16"/>
-      <c r="BH62" s="16"/>
-      <c r="BI62" s="16"/>
-      <c r="BJ62" s="16"/>
-      <c r="BK62" s="16"/>
-      <c r="BL62" s="16"/>
-      <c r="BM62" s="16"/>
-      <c r="BN62" s="16"/>
-      <c r="BO62" s="16"/>
-      <c r="BP62" s="16"/>
-      <c r="BQ62" s="16"/>
-      <c r="BR62" s="16"/>
-      <c r="BS62" s="16"/>
-      <c r="BT62" s="16"/>
-      <c r="BU62" s="16"/>
-      <c r="BV62" s="16"/>
-      <c r="BW62" s="16"/>
-      <c r="BX62" s="16"/>
-      <c r="BY62" s="16"/>
-      <c r="BZ62" s="16"/>
-      <c r="CA62" s="16"/>
-      <c r="CB62" s="16"/>
-      <c r="CC62" s="16"/>
-      <c r="CD62" s="16"/>
-      <c r="CE62" s="16"/>
-      <c r="CF62" s="16"/>
-      <c r="CG62" s="16"/>
-      <c r="CH62" s="16"/>
-      <c r="CI62" s="16"/>
-      <c r="CJ62" s="16"/>
-      <c r="CK62" s="16"/>
-      <c r="CL62" s="16"/>
-      <c r="CM62" s="16"/>
-      <c r="CN62" s="16"/>
-      <c r="CO62" s="16"/>
-      <c r="CP62" s="16"/>
-      <c r="CQ62" s="16"/>
-      <c r="CR62" s="16"/>
-      <c r="CS62" s="16"/>
-      <c r="CT62" s="16"/>
-      <c r="CU62" s="16"/>
-      <c r="CV62" s="16"/>
-      <c r="CW62" s="16"/>
-      <c r="CX62" s="16"/>
-      <c r="CY62" s="16"/>
-      <c r="CZ62" s="16"/>
-      <c r="DA62" s="16"/>
-      <c r="DB62" s="16"/>
-      <c r="DC62" s="16"/>
-      <c r="DD62" s="16"/>
-      <c r="DE62" s="16"/>
-      <c r="DF62" s="16"/>
-      <c r="DG62" s="16"/>
-      <c r="DH62" s="16"/>
-      <c r="DI62" s="16"/>
-      <c r="DJ62" s="16"/>
-      <c r="DK62" s="16"/>
-      <c r="DL62" s="16"/>
-      <c r="DM62" s="16"/>
-      <c r="DN62" s="16"/>
-      <c r="DO62" s="16"/>
-      <c r="DP62" s="16"/>
-      <c r="DQ62" s="16"/>
-      <c r="DR62" s="16"/>
-      <c r="DS62" s="16"/>
-      <c r="DT62" s="16"/>
-      <c r="DU62" s="16"/>
-      <c r="DV62" s="16"/>
-      <c r="DW62" s="16"/>
-      <c r="DX62" s="16"/>
-      <c r="DY62" s="16"/>
-      <c r="DZ62" s="16"/>
-      <c r="EA62" s="16"/>
-      <c r="EB62" s="16"/>
-      <c r="EC62" s="16"/>
-      <c r="ED62" s="16"/>
-      <c r="EE62" s="16"/>
-      <c r="EF62" s="16"/>
-      <c r="EG62" s="16"/>
-      <c r="EH62" s="16"/>
-      <c r="EI62" s="16"/>
-      <c r="EJ62" s="16"/>
-      <c r="EK62" s="16"/>
-      <c r="EL62" s="16"/>
-      <c r="EM62" s="16"/>
-      <c r="EN62" s="16"/>
-      <c r="EO62" s="16"/>
-      <c r="EP62" s="16"/>
-      <c r="EQ62" s="16"/>
-      <c r="ER62" s="16"/>
-      <c r="ES62" s="16"/>
-    </row>
-    <row r="63" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21">
-        <v>1551</v>
-      </c>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="16"/>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
-      <c r="AD63" s="16"/>
-      <c r="AE63" s="16"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="16"/>
-      <c r="AH63" s="16"/>
-      <c r="AI63" s="16"/>
-      <c r="AJ63" s="16"/>
-      <c r="AK63" s="16"/>
-      <c r="AL63" s="16"/>
-      <c r="AM63" s="16"/>
-      <c r="AN63" s="16"/>
-      <c r="AO63" s="16"/>
-      <c r="AP63" s="16"/>
-      <c r="AQ63" s="16"/>
-      <c r="AR63" s="16"/>
-      <c r="AS63" s="16"/>
-      <c r="AT63" s="16"/>
-      <c r="AU63" s="16"/>
-      <c r="AV63" s="16"/>
-      <c r="AW63" s="16"/>
-      <c r="AX63" s="16"/>
-      <c r="AY63" s="16"/>
-      <c r="AZ63" s="16"/>
-      <c r="BA63" s="16"/>
-      <c r="BB63" s="16"/>
-      <c r="BC63" s="16"/>
-      <c r="BD63" s="16"/>
-      <c r="BE63" s="16"/>
-      <c r="BF63" s="16"/>
-      <c r="BG63" s="16"/>
-      <c r="BH63" s="16"/>
-      <c r="BI63" s="16"/>
-      <c r="BJ63" s="16"/>
-      <c r="BK63" s="16"/>
-      <c r="BL63" s="16"/>
-      <c r="BM63" s="16"/>
-      <c r="BN63" s="16"/>
-      <c r="BO63" s="16"/>
-      <c r="BP63" s="16"/>
-      <c r="BQ63" s="16"/>
-      <c r="BR63" s="16"/>
-      <c r="BS63" s="16"/>
-      <c r="BT63" s="16"/>
-      <c r="BU63" s="16"/>
-      <c r="BV63" s="16"/>
-      <c r="BW63" s="16"/>
-      <c r="BX63" s="16"/>
-      <c r="BY63" s="16"/>
-      <c r="BZ63" s="16"/>
-      <c r="CA63" s="16"/>
-      <c r="CB63" s="16"/>
-      <c r="CC63" s="16"/>
-      <c r="CD63" s="16"/>
-      <c r="CE63" s="16"/>
-      <c r="CF63" s="16"/>
-      <c r="CG63" s="16"/>
-      <c r="CH63" s="16"/>
-      <c r="CI63" s="16"/>
-      <c r="CJ63" s="16"/>
-      <c r="CK63" s="16"/>
-      <c r="CL63" s="16"/>
-      <c r="CM63" s="16"/>
-      <c r="CN63" s="16"/>
-      <c r="CO63" s="16"/>
-      <c r="CP63" s="16"/>
-      <c r="CQ63" s="16"/>
-      <c r="CR63" s="16"/>
-      <c r="CS63" s="16"/>
-      <c r="CT63" s="16"/>
-      <c r="CU63" s="16"/>
-      <c r="CV63" s="16"/>
-      <c r="CW63" s="16"/>
-      <c r="CX63" s="16"/>
-      <c r="CY63" s="16"/>
-      <c r="CZ63" s="16"/>
-      <c r="DA63" s="16"/>
-      <c r="DB63" s="16"/>
-      <c r="DC63" s="16"/>
-      <c r="DD63" s="16"/>
-      <c r="DE63" s="16"/>
-      <c r="DF63" s="16"/>
-      <c r="DG63" s="16"/>
-      <c r="DH63" s="16"/>
-      <c r="DI63" s="16"/>
-      <c r="DJ63" s="16"/>
-      <c r="DK63" s="16"/>
-      <c r="DL63" s="16"/>
-      <c r="DM63" s="16"/>
-      <c r="DN63" s="16"/>
-      <c r="DO63" s="16"/>
-      <c r="DP63" s="16"/>
-      <c r="DQ63" s="16"/>
-      <c r="DR63" s="16"/>
-      <c r="DS63" s="16"/>
-      <c r="DT63" s="16"/>
-      <c r="DU63" s="16"/>
-      <c r="DV63" s="16"/>
-      <c r="DW63" s="16"/>
-      <c r="DX63" s="16"/>
-      <c r="DY63" s="16"/>
-      <c r="DZ63" s="16"/>
-      <c r="EA63" s="16"/>
-      <c r="EB63" s="16"/>
-      <c r="EC63" s="16"/>
-      <c r="ED63" s="16"/>
-      <c r="EE63" s="16"/>
-      <c r="EF63" s="16"/>
-      <c r="EG63" s="16"/>
-      <c r="EH63" s="16"/>
-      <c r="EI63" s="16"/>
-      <c r="EJ63" s="16"/>
-      <c r="EK63" s="16"/>
-      <c r="EL63" s="16"/>
-      <c r="EM63" s="16"/>
-      <c r="EN63" s="16"/>
-      <c r="EO63" s="16"/>
-      <c r="EP63" s="16"/>
-      <c r="EQ63" s="16"/>
-      <c r="ER63" s="16"/>
-      <c r="ES63" s="16"/>
-    </row>
-    <row r="64" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21">
-        <v>4205</v>
-      </c>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
-      <c r="AK64" s="16"/>
-      <c r="AL64" s="16"/>
-      <c r="AM64" s="16"/>
-      <c r="AN64" s="16"/>
-      <c r="AO64" s="16"/>
-      <c r="AP64" s="16"/>
-      <c r="AQ64" s="16"/>
-      <c r="AR64" s="16"/>
-      <c r="AS64" s="16"/>
-      <c r="AT64" s="16"/>
-      <c r="AU64" s="16"/>
-      <c r="AV64" s="16"/>
-      <c r="AW64" s="16"/>
-      <c r="AX64" s="16"/>
-      <c r="AY64" s="16"/>
-      <c r="AZ64" s="16"/>
-      <c r="BA64" s="16"/>
-      <c r="BB64" s="16"/>
-      <c r="BC64" s="16"/>
-      <c r="BD64" s="16"/>
-      <c r="BE64" s="16"/>
-      <c r="BF64" s="16"/>
-      <c r="BG64" s="16"/>
-      <c r="BH64" s="16"/>
-      <c r="BI64" s="16"/>
-      <c r="BJ64" s="16"/>
-      <c r="BK64" s="16"/>
-      <c r="BL64" s="16"/>
-      <c r="BM64" s="16"/>
-      <c r="BN64" s="16"/>
-      <c r="BO64" s="16"/>
-      <c r="BP64" s="16"/>
-      <c r="BQ64" s="16"/>
-      <c r="BR64" s="16"/>
-      <c r="BS64" s="16"/>
-      <c r="BT64" s="16"/>
-      <c r="BU64" s="16"/>
-      <c r="BV64" s="16"/>
-      <c r="BW64" s="16"/>
-      <c r="BX64" s="16"/>
-      <c r="BY64" s="16"/>
-      <c r="BZ64" s="16"/>
-      <c r="CA64" s="16"/>
-      <c r="CB64" s="16"/>
-      <c r="CC64" s="16"/>
-      <c r="CD64" s="16"/>
-      <c r="CE64" s="16"/>
-      <c r="CF64" s="16"/>
-      <c r="CG64" s="16"/>
-      <c r="CH64" s="16"/>
-      <c r="CI64" s="16"/>
-      <c r="CJ64" s="16"/>
-      <c r="CK64" s="16"/>
-      <c r="CL64" s="16"/>
-      <c r="CM64" s="16"/>
-      <c r="CN64" s="16"/>
-      <c r="CO64" s="16"/>
-      <c r="CP64" s="16"/>
-      <c r="CQ64" s="16"/>
-      <c r="CR64" s="16"/>
-      <c r="CS64" s="16"/>
-      <c r="CT64" s="16"/>
-      <c r="CU64" s="16"/>
-      <c r="CV64" s="16"/>
-      <c r="CW64" s="16"/>
-      <c r="CX64" s="16"/>
-      <c r="CY64" s="16"/>
-      <c r="CZ64" s="16"/>
-      <c r="DA64" s="16"/>
-      <c r="DB64" s="16"/>
-      <c r="DC64" s="16"/>
-      <c r="DD64" s="16"/>
-      <c r="DE64" s="16"/>
-      <c r="DF64" s="16"/>
-      <c r="DG64" s="16"/>
-      <c r="DH64" s="16"/>
-      <c r="DI64" s="16"/>
-      <c r="DJ64" s="16"/>
-      <c r="DK64" s="16"/>
-      <c r="DL64" s="16"/>
-      <c r="DM64" s="16"/>
-      <c r="DN64" s="16"/>
-      <c r="DO64" s="16"/>
-      <c r="DP64" s="16"/>
-      <c r="DQ64" s="16"/>
-      <c r="DR64" s="16"/>
-      <c r="DS64" s="16"/>
-      <c r="DT64" s="16"/>
-      <c r="DU64" s="16"/>
-      <c r="DV64" s="16"/>
-      <c r="DW64" s="16"/>
-      <c r="DX64" s="16"/>
-      <c r="DY64" s="16"/>
-      <c r="DZ64" s="16"/>
-      <c r="EA64" s="16"/>
-      <c r="EB64" s="16"/>
-      <c r="EC64" s="16"/>
-      <c r="ED64" s="16"/>
-      <c r="EE64" s="16"/>
-      <c r="EF64" s="16"/>
-      <c r="EG64" s="16"/>
-      <c r="EH64" s="16"/>
-      <c r="EI64" s="16"/>
-      <c r="EJ64" s="16"/>
-      <c r="EK64" s="16"/>
-      <c r="EL64" s="16"/>
-      <c r="EM64" s="16"/>
-      <c r="EN64" s="16"/>
-      <c r="EO64" s="16"/>
-      <c r="EP64" s="16"/>
-      <c r="EQ64" s="16"/>
-      <c r="ER64" s="16"/>
-      <c r="ES64" s="16"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="17"/>
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
+      <c r="AL64" s="17"/>
+      <c r="AM64" s="17"/>
+      <c r="AN64" s="17"/>
+      <c r="AO64" s="17"/>
+      <c r="AP64" s="17"/>
+      <c r="AQ64" s="17"/>
+      <c r="AR64" s="17"/>
+      <c r="AS64" s="17"/>
+      <c r="AT64" s="17"/>
+      <c r="AU64" s="17"/>
+      <c r="AV64" s="17"/>
+      <c r="AW64" s="17"/>
+      <c r="AX64" s="17"/>
+      <c r="AY64" s="17"/>
+      <c r="AZ64" s="17"/>
+      <c r="BA64" s="17"/>
+      <c r="BB64" s="17"/>
+      <c r="BC64" s="17"/>
+      <c r="BD64" s="17"/>
+      <c r="BE64" s="17"/>
+      <c r="BF64" s="17"/>
+      <c r="BG64" s="17"/>
+      <c r="BH64" s="17"/>
+      <c r="BI64" s="17"/>
+      <c r="BJ64" s="17"/>
+      <c r="BK64" s="17"/>
+      <c r="BL64" s="17"/>
+      <c r="BM64" s="17"/>
+      <c r="BN64" s="17"/>
+      <c r="BO64" s="17"/>
+      <c r="BP64" s="17"/>
+      <c r="BQ64" s="17"/>
+      <c r="BR64" s="17"/>
+      <c r="BS64" s="17"/>
+      <c r="BT64" s="17"/>
+      <c r="BU64" s="17"/>
+      <c r="BV64" s="17"/>
+      <c r="BW64" s="17"/>
+      <c r="BX64" s="17"/>
+      <c r="BY64" s="17"/>
+      <c r="BZ64" s="17"/>
+      <c r="CA64" s="17"/>
+      <c r="CB64" s="17"/>
+      <c r="CC64" s="17"/>
+      <c r="CD64" s="17"/>
+      <c r="CE64" s="17"/>
+      <c r="CF64" s="17"/>
+      <c r="CG64" s="17"/>
+      <c r="CH64" s="17"/>
+      <c r="CI64" s="17"/>
+      <c r="CJ64" s="17"/>
+      <c r="CK64" s="17"/>
+      <c r="CL64" s="17"/>
+      <c r="CM64" s="17"/>
+      <c r="CN64" s="17"/>
+      <c r="CO64" s="17"/>
+      <c r="CP64" s="17"/>
+      <c r="CQ64" s="17"/>
+      <c r="CR64" s="17"/>
+      <c r="CS64" s="17"/>
+      <c r="CT64" s="17"/>
+      <c r="CU64" s="17"/>
+      <c r="CV64" s="17"/>
+      <c r="CW64" s="17"/>
+      <c r="CX64" s="17"/>
+      <c r="CY64" s="17"/>
+      <c r="CZ64" s="17"/>
+      <c r="DA64" s="17"/>
+      <c r="DB64" s="17"/>
+      <c r="DC64" s="17"/>
+      <c r="DD64" s="17"/>
+      <c r="DE64" s="17"/>
+      <c r="DF64" s="17"/>
+      <c r="DG64" s="17"/>
+      <c r="DH64" s="17"/>
+      <c r="DI64" s="17"/>
+      <c r="DJ64" s="17"/>
+      <c r="DK64" s="17"/>
+      <c r="DL64" s="17"/>
+      <c r="DM64" s="17"/>
+      <c r="DN64" s="17"/>
+      <c r="DO64" s="17"/>
+      <c r="DP64" s="17"/>
+      <c r="DQ64" s="17"/>
+      <c r="DR64" s="17"/>
+      <c r="DS64" s="17"/>
+      <c r="DT64" s="17"/>
+      <c r="DU64" s="17"/>
+      <c r="DV64" s="17"/>
+      <c r="DW64" s="17"/>
+      <c r="DX64" s="17"/>
+      <c r="DY64" s="17"/>
+      <c r="DZ64" s="17"/>
+      <c r="EA64" s="17"/>
+      <c r="EB64" s="17"/>
+      <c r="EC64" s="17"/>
+      <c r="ED64" s="17"/>
+      <c r="EE64" s="17"/>
+      <c r="EF64" s="17"/>
+      <c r="EG64" s="17"/>
+      <c r="EH64" s="17"/>
+      <c r="EI64" s="17"/>
+      <c r="EJ64" s="17"/>
+      <c r="EK64" s="17"/>
+      <c r="EL64" s="17"/>
+      <c r="EM64" s="17"/>
+      <c r="EN64" s="17"/>
+      <c r="EO64" s="17"/>
+      <c r="EP64" s="17"/>
+      <c r="EQ64" s="17"/>
+      <c r="ER64" s="17"/>
+      <c r="ES64" s="17"/>
     </row>
     <row r="65" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
       <c r="B65" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -16590,7 +16625,7 @@
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
       <c r="N65" s="21">
-        <v>10727</v>
+        <v>8333</v>
       </c>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
@@ -16731,7 +16766,7 @@
     <row r="66" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
       <c r="B66" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
@@ -16745,7 +16780,7 @@
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
       <c r="N66" s="21">
-        <v>10013</v>
+        <v>19020</v>
       </c>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
@@ -16886,7 +16921,7 @@
     <row r="67" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16"/>
       <c r="B67" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -16900,7 +16935,7 @@
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
       <c r="N67" s="21">
-        <v>1734</v>
+        <v>1201</v>
       </c>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
@@ -17041,7 +17076,7 @@
     <row r="68" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
       <c r="B68" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
@@ -17055,7 +17090,7 @@
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
       <c r="N68" s="21">
-        <v>4822</v>
+        <v>1551</v>
       </c>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
@@ -17196,7 +17231,7 @@
     <row r="69" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16"/>
       <c r="B69" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -17210,8 +17245,7 @@
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
       <c r="N69" s="21">
-        <f>32021+3487</f>
-        <v>35508</v>
+        <v>4205</v>
       </c>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
@@ -17352,7 +17386,7 @@
     <row r="70" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16"/>
       <c r="B70" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -17366,7 +17400,7 @@
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
       <c r="N70" s="21">
-        <v>5187</v>
+        <v>10727</v>
       </c>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
@@ -17507,7 +17541,7 @@
     <row r="71" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -17521,8 +17555,7 @@
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
       <c r="N71" s="21">
-        <f>SUM(N59:N70)</f>
-        <v>110495</v>
+        <v>10013</v>
       </c>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
@@ -17661,29 +17694,164 @@
       <c r="ES71" s="16"/>
     </row>
     <row r="72" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="1"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="AR72" s="1"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21">
+        <v>1734</v>
+      </c>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="16"/>
+      <c r="AM72" s="16"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="16"/>
+      <c r="AS72" s="16"/>
+      <c r="AT72" s="16"/>
+      <c r="AU72" s="16"/>
+      <c r="AV72" s="16"/>
+      <c r="AW72" s="16"/>
+      <c r="AX72" s="16"/>
+      <c r="AY72" s="16"/>
+      <c r="AZ72" s="16"/>
+      <c r="BA72" s="16"/>
+      <c r="BB72" s="16"/>
+      <c r="BC72" s="16"/>
+      <c r="BD72" s="16"/>
+      <c r="BE72" s="16"/>
+      <c r="BF72" s="16"/>
+      <c r="BG72" s="16"/>
+      <c r="BH72" s="16"/>
+      <c r="BI72" s="16"/>
+      <c r="BJ72" s="16"/>
+      <c r="BK72" s="16"/>
+      <c r="BL72" s="16"/>
+      <c r="BM72" s="16"/>
+      <c r="BN72" s="16"/>
+      <c r="BO72" s="16"/>
+      <c r="BP72" s="16"/>
+      <c r="BQ72" s="16"/>
+      <c r="BR72" s="16"/>
+      <c r="BS72" s="16"/>
+      <c r="BT72" s="16"/>
+      <c r="BU72" s="16"/>
+      <c r="BV72" s="16"/>
+      <c r="BW72" s="16"/>
+      <c r="BX72" s="16"/>
+      <c r="BY72" s="16"/>
+      <c r="BZ72" s="16"/>
+      <c r="CA72" s="16"/>
+      <c r="CB72" s="16"/>
+      <c r="CC72" s="16"/>
+      <c r="CD72" s="16"/>
+      <c r="CE72" s="16"/>
+      <c r="CF72" s="16"/>
+      <c r="CG72" s="16"/>
+      <c r="CH72" s="16"/>
+      <c r="CI72" s="16"/>
+      <c r="CJ72" s="16"/>
+      <c r="CK72" s="16"/>
+      <c r="CL72" s="16"/>
+      <c r="CM72" s="16"/>
+      <c r="CN72" s="16"/>
+      <c r="CO72" s="16"/>
+      <c r="CP72" s="16"/>
+      <c r="CQ72" s="16"/>
+      <c r="CR72" s="16"/>
+      <c r="CS72" s="16"/>
+      <c r="CT72" s="16"/>
+      <c r="CU72" s="16"/>
+      <c r="CV72" s="16"/>
+      <c r="CW72" s="16"/>
+      <c r="CX72" s="16"/>
+      <c r="CY72" s="16"/>
+      <c r="CZ72" s="16"/>
+      <c r="DA72" s="16"/>
+      <c r="DB72" s="16"/>
+      <c r="DC72" s="16"/>
+      <c r="DD72" s="16"/>
+      <c r="DE72" s="16"/>
+      <c r="DF72" s="16"/>
+      <c r="DG72" s="16"/>
+      <c r="DH72" s="16"/>
+      <c r="DI72" s="16"/>
+      <c r="DJ72" s="16"/>
+      <c r="DK72" s="16"/>
+      <c r="DL72" s="16"/>
+      <c r="DM72" s="16"/>
+      <c r="DN72" s="16"/>
+      <c r="DO72" s="16"/>
+      <c r="DP72" s="16"/>
+      <c r="DQ72" s="16"/>
+      <c r="DR72" s="16"/>
+      <c r="DS72" s="16"/>
+      <c r="DT72" s="16"/>
+      <c r="DU72" s="16"/>
+      <c r="DV72" s="16"/>
+      <c r="DW72" s="16"/>
+      <c r="DX72" s="16"/>
+      <c r="DY72" s="16"/>
+      <c r="DZ72" s="16"/>
+      <c r="EA72" s="16"/>
+      <c r="EB72" s="16"/>
+      <c r="EC72" s="16"/>
+      <c r="ED72" s="16"/>
+      <c r="EE72" s="16"/>
+      <c r="EF72" s="16"/>
+      <c r="EG72" s="16"/>
+      <c r="EH72" s="16"/>
+      <c r="EI72" s="16"/>
+      <c r="EJ72" s="16"/>
+      <c r="EK72" s="16"/>
+      <c r="EL72" s="16"/>
+      <c r="EM72" s="16"/>
+      <c r="EN72" s="16"/>
+      <c r="EO72" s="16"/>
+      <c r="EP72" s="16"/>
+      <c r="EQ72" s="16"/>
+      <c r="ER72" s="16"/>
+      <c r="ES72" s="16"/>
     </row>
     <row r="73" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
       <c r="B73" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
@@ -17697,7 +17865,7 @@
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
       <c r="N73" s="21">
-        <v>2847</v>
+        <v>4822</v>
       </c>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
@@ -17836,165 +18004,165 @@
       <c r="ES73" s="16"/>
     </row>
     <row r="74" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26">
-        <f>6461+33428</f>
-        <v>39889</v>
-      </c>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
-      <c r="AB74" s="17"/>
-      <c r="AC74" s="17"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="17"/>
-      <c r="AG74" s="17"/>
-      <c r="AH74" s="17"/>
-      <c r="AI74" s="17"/>
-      <c r="AJ74" s="17"/>
-      <c r="AK74" s="17"/>
-      <c r="AL74" s="17"/>
-      <c r="AM74" s="17"/>
-      <c r="AN74" s="17"/>
-      <c r="AO74" s="17"/>
-      <c r="AP74" s="17"/>
-      <c r="AQ74" s="17"/>
-      <c r="AR74" s="17"/>
-      <c r="AS74" s="17"/>
-      <c r="AT74" s="17"/>
-      <c r="AU74" s="17"/>
-      <c r="AV74" s="17"/>
-      <c r="AW74" s="17"/>
-      <c r="AX74" s="17"/>
-      <c r="AY74" s="17"/>
-      <c r="AZ74" s="17"/>
-      <c r="BA74" s="17"/>
-      <c r="BB74" s="17"/>
-      <c r="BC74" s="17"/>
-      <c r="BD74" s="17"/>
-      <c r="BE74" s="17"/>
-      <c r="BF74" s="17"/>
-      <c r="BG74" s="17"/>
-      <c r="BH74" s="17"/>
-      <c r="BI74" s="17"/>
-      <c r="BJ74" s="17"/>
-      <c r="BK74" s="17"/>
-      <c r="BL74" s="17"/>
-      <c r="BM74" s="17"/>
-      <c r="BN74" s="17"/>
-      <c r="BO74" s="17"/>
-      <c r="BP74" s="17"/>
-      <c r="BQ74" s="17"/>
-      <c r="BR74" s="17"/>
-      <c r="BS74" s="17"/>
-      <c r="BT74" s="17"/>
-      <c r="BU74" s="17"/>
-      <c r="BV74" s="17"/>
-      <c r="BW74" s="17"/>
-      <c r="BX74" s="17"/>
-      <c r="BY74" s="17"/>
-      <c r="BZ74" s="17"/>
-      <c r="CA74" s="17"/>
-      <c r="CB74" s="17"/>
-      <c r="CC74" s="17"/>
-      <c r="CD74" s="17"/>
-      <c r="CE74" s="17"/>
-      <c r="CF74" s="17"/>
-      <c r="CG74" s="17"/>
-      <c r="CH74" s="17"/>
-      <c r="CI74" s="17"/>
-      <c r="CJ74" s="17"/>
-      <c r="CK74" s="17"/>
-      <c r="CL74" s="17"/>
-      <c r="CM74" s="17"/>
-      <c r="CN74" s="17"/>
-      <c r="CO74" s="17"/>
-      <c r="CP74" s="17"/>
-      <c r="CQ74" s="17"/>
-      <c r="CR74" s="17"/>
-      <c r="CS74" s="17"/>
-      <c r="CT74" s="17"/>
-      <c r="CU74" s="17"/>
-      <c r="CV74" s="17"/>
-      <c r="CW74" s="17"/>
-      <c r="CX74" s="17"/>
-      <c r="CY74" s="17"/>
-      <c r="CZ74" s="17"/>
-      <c r="DA74" s="17"/>
-      <c r="DB74" s="17"/>
-      <c r="DC74" s="17"/>
-      <c r="DD74" s="17"/>
-      <c r="DE74" s="17"/>
-      <c r="DF74" s="17"/>
-      <c r="DG74" s="17"/>
-      <c r="DH74" s="17"/>
-      <c r="DI74" s="17"/>
-      <c r="DJ74" s="17"/>
-      <c r="DK74" s="17"/>
-      <c r="DL74" s="17"/>
-      <c r="DM74" s="17"/>
-      <c r="DN74" s="17"/>
-      <c r="DO74" s="17"/>
-      <c r="DP74" s="17"/>
-      <c r="DQ74" s="17"/>
-      <c r="DR74" s="17"/>
-      <c r="DS74" s="17"/>
-      <c r="DT74" s="17"/>
-      <c r="DU74" s="17"/>
-      <c r="DV74" s="17"/>
-      <c r="DW74" s="17"/>
-      <c r="DX74" s="17"/>
-      <c r="DY74" s="17"/>
-      <c r="DZ74" s="17"/>
-      <c r="EA74" s="17"/>
-      <c r="EB74" s="17"/>
-      <c r="EC74" s="17"/>
-      <c r="ED74" s="17"/>
-      <c r="EE74" s="17"/>
-      <c r="EF74" s="17"/>
-      <c r="EG74" s="17"/>
-      <c r="EH74" s="17"/>
-      <c r="EI74" s="17"/>
-      <c r="EJ74" s="17"/>
-      <c r="EK74" s="17"/>
-      <c r="EL74" s="17"/>
-      <c r="EM74" s="17"/>
-      <c r="EN74" s="17"/>
-      <c r="EO74" s="17"/>
-      <c r="EP74" s="17"/>
-      <c r="EQ74" s="17"/>
-      <c r="ER74" s="17"/>
-      <c r="ES74" s="17"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21">
+        <f>32021+3487</f>
+        <v>35508</v>
+      </c>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
+      <c r="AI74" s="16"/>
+      <c r="AJ74" s="16"/>
+      <c r="AK74" s="16"/>
+      <c r="AL74" s="16"/>
+      <c r="AM74" s="16"/>
+      <c r="AN74" s="16"/>
+      <c r="AO74" s="16"/>
+      <c r="AP74" s="16"/>
+      <c r="AQ74" s="16"/>
+      <c r="AR74" s="16"/>
+      <c r="AS74" s="16"/>
+      <c r="AT74" s="16"/>
+      <c r="AU74" s="16"/>
+      <c r="AV74" s="16"/>
+      <c r="AW74" s="16"/>
+      <c r="AX74" s="16"/>
+      <c r="AY74" s="16"/>
+      <c r="AZ74" s="16"/>
+      <c r="BA74" s="16"/>
+      <c r="BB74" s="16"/>
+      <c r="BC74" s="16"/>
+      <c r="BD74" s="16"/>
+      <c r="BE74" s="16"/>
+      <c r="BF74" s="16"/>
+      <c r="BG74" s="16"/>
+      <c r="BH74" s="16"/>
+      <c r="BI74" s="16"/>
+      <c r="BJ74" s="16"/>
+      <c r="BK74" s="16"/>
+      <c r="BL74" s="16"/>
+      <c r="BM74" s="16"/>
+      <c r="BN74" s="16"/>
+      <c r="BO74" s="16"/>
+      <c r="BP74" s="16"/>
+      <c r="BQ74" s="16"/>
+      <c r="BR74" s="16"/>
+      <c r="BS74" s="16"/>
+      <c r="BT74" s="16"/>
+      <c r="BU74" s="16"/>
+      <c r="BV74" s="16"/>
+      <c r="BW74" s="16"/>
+      <c r="BX74" s="16"/>
+      <c r="BY74" s="16"/>
+      <c r="BZ74" s="16"/>
+      <c r="CA74" s="16"/>
+      <c r="CB74" s="16"/>
+      <c r="CC74" s="16"/>
+      <c r="CD74" s="16"/>
+      <c r="CE74" s="16"/>
+      <c r="CF74" s="16"/>
+      <c r="CG74" s="16"/>
+      <c r="CH74" s="16"/>
+      <c r="CI74" s="16"/>
+      <c r="CJ74" s="16"/>
+      <c r="CK74" s="16"/>
+      <c r="CL74" s="16"/>
+      <c r="CM74" s="16"/>
+      <c r="CN74" s="16"/>
+      <c r="CO74" s="16"/>
+      <c r="CP74" s="16"/>
+      <c r="CQ74" s="16"/>
+      <c r="CR74" s="16"/>
+      <c r="CS74" s="16"/>
+      <c r="CT74" s="16"/>
+      <c r="CU74" s="16"/>
+      <c r="CV74" s="16"/>
+      <c r="CW74" s="16"/>
+      <c r="CX74" s="16"/>
+      <c r="CY74" s="16"/>
+      <c r="CZ74" s="16"/>
+      <c r="DA74" s="16"/>
+      <c r="DB74" s="16"/>
+      <c r="DC74" s="16"/>
+      <c r="DD74" s="16"/>
+      <c r="DE74" s="16"/>
+      <c r="DF74" s="16"/>
+      <c r="DG74" s="16"/>
+      <c r="DH74" s="16"/>
+      <c r="DI74" s="16"/>
+      <c r="DJ74" s="16"/>
+      <c r="DK74" s="16"/>
+      <c r="DL74" s="16"/>
+      <c r="DM74" s="16"/>
+      <c r="DN74" s="16"/>
+      <c r="DO74" s="16"/>
+      <c r="DP74" s="16"/>
+      <c r="DQ74" s="16"/>
+      <c r="DR74" s="16"/>
+      <c r="DS74" s="16"/>
+      <c r="DT74" s="16"/>
+      <c r="DU74" s="16"/>
+      <c r="DV74" s="16"/>
+      <c r="DW74" s="16"/>
+      <c r="DX74" s="16"/>
+      <c r="DY74" s="16"/>
+      <c r="DZ74" s="16"/>
+      <c r="EA74" s="16"/>
+      <c r="EB74" s="16"/>
+      <c r="EC74" s="16"/>
+      <c r="ED74" s="16"/>
+      <c r="EE74" s="16"/>
+      <c r="EF74" s="16"/>
+      <c r="EG74" s="16"/>
+      <c r="EH74" s="16"/>
+      <c r="EI74" s="16"/>
+      <c r="EJ74" s="16"/>
+      <c r="EK74" s="16"/>
+      <c r="EL74" s="16"/>
+      <c r="EM74" s="16"/>
+      <c r="EN74" s="16"/>
+      <c r="EO74" s="16"/>
+      <c r="EP74" s="16"/>
+      <c r="EQ74" s="16"/>
+      <c r="ER74" s="16"/>
+      <c r="ES74" s="16"/>
     </row>
     <row r="75" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
       <c r="B75" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
@@ -18008,7 +18176,7 @@
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
       <c r="N75" s="21">
-        <v>6028</v>
+        <v>5187</v>
       </c>
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
@@ -18149,7 +18317,7 @@
     <row r="76" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
       <c r="B76" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
@@ -18163,7 +18331,8 @@
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
       <c r="N76" s="21">
-        <v>3560</v>
+        <f>SUM(N64:N75)</f>
+        <v>110495</v>
       </c>
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
@@ -18302,165 +18471,29 @@
       <c r="ES76" s="16"/>
     </row>
     <row r="77" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21">
-        <f>11021+3771</f>
-        <v>14792</v>
-      </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-      <c r="Z77" s="16"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="16"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16"/>
-      <c r="AI77" s="16"/>
-      <c r="AJ77" s="16"/>
-      <c r="AK77" s="16"/>
-      <c r="AL77" s="16"/>
-      <c r="AM77" s="16"/>
-      <c r="AN77" s="16"/>
-      <c r="AO77" s="16"/>
-      <c r="AP77" s="16"/>
-      <c r="AQ77" s="16"/>
-      <c r="AR77" s="16"/>
-      <c r="AS77" s="16"/>
-      <c r="AT77" s="16"/>
-      <c r="AU77" s="16"/>
-      <c r="AV77" s="16"/>
-      <c r="AW77" s="16"/>
-      <c r="AX77" s="16"/>
-      <c r="AY77" s="16"/>
-      <c r="AZ77" s="16"/>
-      <c r="BA77" s="16"/>
-      <c r="BB77" s="16"/>
-      <c r="BC77" s="16"/>
-      <c r="BD77" s="16"/>
-      <c r="BE77" s="16"/>
-      <c r="BF77" s="16"/>
-      <c r="BG77" s="16"/>
-      <c r="BH77" s="16"/>
-      <c r="BI77" s="16"/>
-      <c r="BJ77" s="16"/>
-      <c r="BK77" s="16"/>
-      <c r="BL77" s="16"/>
-      <c r="BM77" s="16"/>
-      <c r="BN77" s="16"/>
-      <c r="BO77" s="16"/>
-      <c r="BP77" s="16"/>
-      <c r="BQ77" s="16"/>
-      <c r="BR77" s="16"/>
-      <c r="BS77" s="16"/>
-      <c r="BT77" s="16"/>
-      <c r="BU77" s="16"/>
-      <c r="BV77" s="16"/>
-      <c r="BW77" s="16"/>
-      <c r="BX77" s="16"/>
-      <c r="BY77" s="16"/>
-      <c r="BZ77" s="16"/>
-      <c r="CA77" s="16"/>
-      <c r="CB77" s="16"/>
-      <c r="CC77" s="16"/>
-      <c r="CD77" s="16"/>
-      <c r="CE77" s="16"/>
-      <c r="CF77" s="16"/>
-      <c r="CG77" s="16"/>
-      <c r="CH77" s="16"/>
-      <c r="CI77" s="16"/>
-      <c r="CJ77" s="16"/>
-      <c r="CK77" s="16"/>
-      <c r="CL77" s="16"/>
-      <c r="CM77" s="16"/>
-      <c r="CN77" s="16"/>
-      <c r="CO77" s="16"/>
-      <c r="CP77" s="16"/>
-      <c r="CQ77" s="16"/>
-      <c r="CR77" s="16"/>
-      <c r="CS77" s="16"/>
-      <c r="CT77" s="16"/>
-      <c r="CU77" s="16"/>
-      <c r="CV77" s="16"/>
-      <c r="CW77" s="16"/>
-      <c r="CX77" s="16"/>
-      <c r="CY77" s="16"/>
-      <c r="CZ77" s="16"/>
-      <c r="DA77" s="16"/>
-      <c r="DB77" s="16"/>
-      <c r="DC77" s="16"/>
-      <c r="DD77" s="16"/>
-      <c r="DE77" s="16"/>
-      <c r="DF77" s="16"/>
-      <c r="DG77" s="16"/>
-      <c r="DH77" s="16"/>
-      <c r="DI77" s="16"/>
-      <c r="DJ77" s="16"/>
-      <c r="DK77" s="16"/>
-      <c r="DL77" s="16"/>
-      <c r="DM77" s="16"/>
-      <c r="DN77" s="16"/>
-      <c r="DO77" s="16"/>
-      <c r="DP77" s="16"/>
-      <c r="DQ77" s="16"/>
-      <c r="DR77" s="16"/>
-      <c r="DS77" s="16"/>
-      <c r="DT77" s="16"/>
-      <c r="DU77" s="16"/>
-      <c r="DV77" s="16"/>
-      <c r="DW77" s="16"/>
-      <c r="DX77" s="16"/>
-      <c r="DY77" s="16"/>
-      <c r="DZ77" s="16"/>
-      <c r="EA77" s="16"/>
-      <c r="EB77" s="16"/>
-      <c r="EC77" s="16"/>
-      <c r="ED77" s="16"/>
-      <c r="EE77" s="16"/>
-      <c r="EF77" s="16"/>
-      <c r="EG77" s="16"/>
-      <c r="EH77" s="16"/>
-      <c r="EI77" s="16"/>
-      <c r="EJ77" s="16"/>
-      <c r="EK77" s="16"/>
-      <c r="EL77" s="16"/>
-      <c r="EM77" s="16"/>
-      <c r="EN77" s="16"/>
-      <c r="EO77" s="16"/>
-      <c r="EP77" s="16"/>
-      <c r="EQ77" s="16"/>
-      <c r="ER77" s="16"/>
-      <c r="ES77" s="16"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="AR77" s="1"/>
     </row>
     <row r="78" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
@@ -18474,7 +18507,7 @@
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
       <c r="N78" s="21">
-        <v>4353</v>
+        <v>2847</v>
       </c>
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
@@ -18613,164 +18646,165 @@
       <c r="ES78" s="16"/>
     </row>
     <row r="79" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21">
-        <v>16504</v>
-      </c>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="16"/>
-      <c r="AD79" s="16"/>
-      <c r="AE79" s="16"/>
-      <c r="AF79" s="16"/>
-      <c r="AG79" s="16"/>
-      <c r="AH79" s="16"/>
-      <c r="AI79" s="16"/>
-      <c r="AJ79" s="16"/>
-      <c r="AK79" s="16"/>
-      <c r="AL79" s="16"/>
-      <c r="AM79" s="16"/>
-      <c r="AN79" s="16"/>
-      <c r="AO79" s="16"/>
-      <c r="AP79" s="16"/>
-      <c r="AQ79" s="16"/>
-      <c r="AR79" s="16"/>
-      <c r="AS79" s="16"/>
-      <c r="AT79" s="16"/>
-      <c r="AU79" s="16"/>
-      <c r="AV79" s="16"/>
-      <c r="AW79" s="16"/>
-      <c r="AX79" s="16"/>
-      <c r="AY79" s="16"/>
-      <c r="AZ79" s="16"/>
-      <c r="BA79" s="16"/>
-      <c r="BB79" s="16"/>
-      <c r="BC79" s="16"/>
-      <c r="BD79" s="16"/>
-      <c r="BE79" s="16"/>
-      <c r="BF79" s="16"/>
-      <c r="BG79" s="16"/>
-      <c r="BH79" s="16"/>
-      <c r="BI79" s="16"/>
-      <c r="BJ79" s="16"/>
-      <c r="BK79" s="16"/>
-      <c r="BL79" s="16"/>
-      <c r="BM79" s="16"/>
-      <c r="BN79" s="16"/>
-      <c r="BO79" s="16"/>
-      <c r="BP79" s="16"/>
-      <c r="BQ79" s="16"/>
-      <c r="BR79" s="16"/>
-      <c r="BS79" s="16"/>
-      <c r="BT79" s="16"/>
-      <c r="BU79" s="16"/>
-      <c r="BV79" s="16"/>
-      <c r="BW79" s="16"/>
-      <c r="BX79" s="16"/>
-      <c r="BY79" s="16"/>
-      <c r="BZ79" s="16"/>
-      <c r="CA79" s="16"/>
-      <c r="CB79" s="16"/>
-      <c r="CC79" s="16"/>
-      <c r="CD79" s="16"/>
-      <c r="CE79" s="16"/>
-      <c r="CF79" s="16"/>
-      <c r="CG79" s="16"/>
-      <c r="CH79" s="16"/>
-      <c r="CI79" s="16"/>
-      <c r="CJ79" s="16"/>
-      <c r="CK79" s="16"/>
-      <c r="CL79" s="16"/>
-      <c r="CM79" s="16"/>
-      <c r="CN79" s="16"/>
-      <c r="CO79" s="16"/>
-      <c r="CP79" s="16"/>
-      <c r="CQ79" s="16"/>
-      <c r="CR79" s="16"/>
-      <c r="CS79" s="16"/>
-      <c r="CT79" s="16"/>
-      <c r="CU79" s="16"/>
-      <c r="CV79" s="16"/>
-      <c r="CW79" s="16"/>
-      <c r="CX79" s="16"/>
-      <c r="CY79" s="16"/>
-      <c r="CZ79" s="16"/>
-      <c r="DA79" s="16"/>
-      <c r="DB79" s="16"/>
-      <c r="DC79" s="16"/>
-      <c r="DD79" s="16"/>
-      <c r="DE79" s="16"/>
-      <c r="DF79" s="16"/>
-      <c r="DG79" s="16"/>
-      <c r="DH79" s="16"/>
-      <c r="DI79" s="16"/>
-      <c r="DJ79" s="16"/>
-      <c r="DK79" s="16"/>
-      <c r="DL79" s="16"/>
-      <c r="DM79" s="16"/>
-      <c r="DN79" s="16"/>
-      <c r="DO79" s="16"/>
-      <c r="DP79" s="16"/>
-      <c r="DQ79" s="16"/>
-      <c r="DR79" s="16"/>
-      <c r="DS79" s="16"/>
-      <c r="DT79" s="16"/>
-      <c r="DU79" s="16"/>
-      <c r="DV79" s="16"/>
-      <c r="DW79" s="16"/>
-      <c r="DX79" s="16"/>
-      <c r="DY79" s="16"/>
-      <c r="DZ79" s="16"/>
-      <c r="EA79" s="16"/>
-      <c r="EB79" s="16"/>
-      <c r="EC79" s="16"/>
-      <c r="ED79" s="16"/>
-      <c r="EE79" s="16"/>
-      <c r="EF79" s="16"/>
-      <c r="EG79" s="16"/>
-      <c r="EH79" s="16"/>
-      <c r="EI79" s="16"/>
-      <c r="EJ79" s="16"/>
-      <c r="EK79" s="16"/>
-      <c r="EL79" s="16"/>
-      <c r="EM79" s="16"/>
-      <c r="EN79" s="16"/>
-      <c r="EO79" s="16"/>
-      <c r="EP79" s="16"/>
-      <c r="EQ79" s="16"/>
-      <c r="ER79" s="16"/>
-      <c r="ES79" s="16"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26">
+        <f>6461+33428</f>
+        <v>39889</v>
+      </c>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="17"/>
+      <c r="AL79" s="17"/>
+      <c r="AM79" s="17"/>
+      <c r="AN79" s="17"/>
+      <c r="AO79" s="17"/>
+      <c r="AP79" s="17"/>
+      <c r="AQ79" s="17"/>
+      <c r="AR79" s="17"/>
+      <c r="AS79" s="17"/>
+      <c r="AT79" s="17"/>
+      <c r="AU79" s="17"/>
+      <c r="AV79" s="17"/>
+      <c r="AW79" s="17"/>
+      <c r="AX79" s="17"/>
+      <c r="AY79" s="17"/>
+      <c r="AZ79" s="17"/>
+      <c r="BA79" s="17"/>
+      <c r="BB79" s="17"/>
+      <c r="BC79" s="17"/>
+      <c r="BD79" s="17"/>
+      <c r="BE79" s="17"/>
+      <c r="BF79" s="17"/>
+      <c r="BG79" s="17"/>
+      <c r="BH79" s="17"/>
+      <c r="BI79" s="17"/>
+      <c r="BJ79" s="17"/>
+      <c r="BK79" s="17"/>
+      <c r="BL79" s="17"/>
+      <c r="BM79" s="17"/>
+      <c r="BN79" s="17"/>
+      <c r="BO79" s="17"/>
+      <c r="BP79" s="17"/>
+      <c r="BQ79" s="17"/>
+      <c r="BR79" s="17"/>
+      <c r="BS79" s="17"/>
+      <c r="BT79" s="17"/>
+      <c r="BU79" s="17"/>
+      <c r="BV79" s="17"/>
+      <c r="BW79" s="17"/>
+      <c r="BX79" s="17"/>
+      <c r="BY79" s="17"/>
+      <c r="BZ79" s="17"/>
+      <c r="CA79" s="17"/>
+      <c r="CB79" s="17"/>
+      <c r="CC79" s="17"/>
+      <c r="CD79" s="17"/>
+      <c r="CE79" s="17"/>
+      <c r="CF79" s="17"/>
+      <c r="CG79" s="17"/>
+      <c r="CH79" s="17"/>
+      <c r="CI79" s="17"/>
+      <c r="CJ79" s="17"/>
+      <c r="CK79" s="17"/>
+      <c r="CL79" s="17"/>
+      <c r="CM79" s="17"/>
+      <c r="CN79" s="17"/>
+      <c r="CO79" s="17"/>
+      <c r="CP79" s="17"/>
+      <c r="CQ79" s="17"/>
+      <c r="CR79" s="17"/>
+      <c r="CS79" s="17"/>
+      <c r="CT79" s="17"/>
+      <c r="CU79" s="17"/>
+      <c r="CV79" s="17"/>
+      <c r="CW79" s="17"/>
+      <c r="CX79" s="17"/>
+      <c r="CY79" s="17"/>
+      <c r="CZ79" s="17"/>
+      <c r="DA79" s="17"/>
+      <c r="DB79" s="17"/>
+      <c r="DC79" s="17"/>
+      <c r="DD79" s="17"/>
+      <c r="DE79" s="17"/>
+      <c r="DF79" s="17"/>
+      <c r="DG79" s="17"/>
+      <c r="DH79" s="17"/>
+      <c r="DI79" s="17"/>
+      <c r="DJ79" s="17"/>
+      <c r="DK79" s="17"/>
+      <c r="DL79" s="17"/>
+      <c r="DM79" s="17"/>
+      <c r="DN79" s="17"/>
+      <c r="DO79" s="17"/>
+      <c r="DP79" s="17"/>
+      <c r="DQ79" s="17"/>
+      <c r="DR79" s="17"/>
+      <c r="DS79" s="17"/>
+      <c r="DT79" s="17"/>
+      <c r="DU79" s="17"/>
+      <c r="DV79" s="17"/>
+      <c r="DW79" s="17"/>
+      <c r="DX79" s="17"/>
+      <c r="DY79" s="17"/>
+      <c r="DZ79" s="17"/>
+      <c r="EA79" s="17"/>
+      <c r="EB79" s="17"/>
+      <c r="EC79" s="17"/>
+      <c r="ED79" s="17"/>
+      <c r="EE79" s="17"/>
+      <c r="EF79" s="17"/>
+      <c r="EG79" s="17"/>
+      <c r="EH79" s="17"/>
+      <c r="EI79" s="17"/>
+      <c r="EJ79" s="17"/>
+      <c r="EK79" s="17"/>
+      <c r="EL79" s="17"/>
+      <c r="EM79" s="17"/>
+      <c r="EN79" s="17"/>
+      <c r="EO79" s="17"/>
+      <c r="EP79" s="17"/>
+      <c r="EQ79" s="17"/>
+      <c r="ER79" s="17"/>
+      <c r="ES79" s="17"/>
     </row>
     <row r="80" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
@@ -18784,7 +18818,7 @@
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
       <c r="N80" s="21">
-        <v>8099</v>
+        <v>6028</v>
       </c>
       <c r="O80" s="21"/>
       <c r="P80" s="21"/>
@@ -18925,7 +18959,7 @@
     <row r="81" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
       <c r="B81" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
@@ -18939,7 +18973,7 @@
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
       <c r="N81" s="21">
-        <v>14424</v>
+        <v>3560</v>
       </c>
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
@@ -19080,7 +19114,7 @@
     <row r="82" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
       <c r="B82" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -19094,8 +19128,8 @@
       <c r="L82" s="21"/>
       <c r="M82" s="21"/>
       <c r="N82" s="21">
-        <f>SUM(N73:N81)</f>
-        <v>110496</v>
+        <f>11021+3771</f>
+        <v>14792</v>
       </c>
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
@@ -19234,104 +19268,780 @@
       <c r="ES82" s="16"/>
     </row>
     <row r="83" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="AR83" s="1"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21">
+        <v>4353</v>
+      </c>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="16"/>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+      <c r="AH83" s="16"/>
+      <c r="AI83" s="16"/>
+      <c r="AJ83" s="16"/>
+      <c r="AK83" s="16"/>
+      <c r="AL83" s="16"/>
+      <c r="AM83" s="16"/>
+      <c r="AN83" s="16"/>
+      <c r="AO83" s="16"/>
+      <c r="AP83" s="16"/>
+      <c r="AQ83" s="16"/>
+      <c r="AR83" s="16"/>
+      <c r="AS83" s="16"/>
+      <c r="AT83" s="16"/>
+      <c r="AU83" s="16"/>
+      <c r="AV83" s="16"/>
+      <c r="AW83" s="16"/>
+      <c r="AX83" s="16"/>
+      <c r="AY83" s="16"/>
+      <c r="AZ83" s="16"/>
+      <c r="BA83" s="16"/>
+      <c r="BB83" s="16"/>
+      <c r="BC83" s="16"/>
+      <c r="BD83" s="16"/>
+      <c r="BE83" s="16"/>
+      <c r="BF83" s="16"/>
+      <c r="BG83" s="16"/>
+      <c r="BH83" s="16"/>
+      <c r="BI83" s="16"/>
+      <c r="BJ83" s="16"/>
+      <c r="BK83" s="16"/>
+      <c r="BL83" s="16"/>
+      <c r="BM83" s="16"/>
+      <c r="BN83" s="16"/>
+      <c r="BO83" s="16"/>
+      <c r="BP83" s="16"/>
+      <c r="BQ83" s="16"/>
+      <c r="BR83" s="16"/>
+      <c r="BS83" s="16"/>
+      <c r="BT83" s="16"/>
+      <c r="BU83" s="16"/>
+      <c r="BV83" s="16"/>
+      <c r="BW83" s="16"/>
+      <c r="BX83" s="16"/>
+      <c r="BY83" s="16"/>
+      <c r="BZ83" s="16"/>
+      <c r="CA83" s="16"/>
+      <c r="CB83" s="16"/>
+      <c r="CC83" s="16"/>
+      <c r="CD83" s="16"/>
+      <c r="CE83" s="16"/>
+      <c r="CF83" s="16"/>
+      <c r="CG83" s="16"/>
+      <c r="CH83" s="16"/>
+      <c r="CI83" s="16"/>
+      <c r="CJ83" s="16"/>
+      <c r="CK83" s="16"/>
+      <c r="CL83" s="16"/>
+      <c r="CM83" s="16"/>
+      <c r="CN83" s="16"/>
+      <c r="CO83" s="16"/>
+      <c r="CP83" s="16"/>
+      <c r="CQ83" s="16"/>
+      <c r="CR83" s="16"/>
+      <c r="CS83" s="16"/>
+      <c r="CT83" s="16"/>
+      <c r="CU83" s="16"/>
+      <c r="CV83" s="16"/>
+      <c r="CW83" s="16"/>
+      <c r="CX83" s="16"/>
+      <c r="CY83" s="16"/>
+      <c r="CZ83" s="16"/>
+      <c r="DA83" s="16"/>
+      <c r="DB83" s="16"/>
+      <c r="DC83" s="16"/>
+      <c r="DD83" s="16"/>
+      <c r="DE83" s="16"/>
+      <c r="DF83" s="16"/>
+      <c r="DG83" s="16"/>
+      <c r="DH83" s="16"/>
+      <c r="DI83" s="16"/>
+      <c r="DJ83" s="16"/>
+      <c r="DK83" s="16"/>
+      <c r="DL83" s="16"/>
+      <c r="DM83" s="16"/>
+      <c r="DN83" s="16"/>
+      <c r="DO83" s="16"/>
+      <c r="DP83" s="16"/>
+      <c r="DQ83" s="16"/>
+      <c r="DR83" s="16"/>
+      <c r="DS83" s="16"/>
+      <c r="DT83" s="16"/>
+      <c r="DU83" s="16"/>
+      <c r="DV83" s="16"/>
+      <c r="DW83" s="16"/>
+      <c r="DX83" s="16"/>
+      <c r="DY83" s="16"/>
+      <c r="DZ83" s="16"/>
+      <c r="EA83" s="16"/>
+      <c r="EB83" s="16"/>
+      <c r="EC83" s="16"/>
+      <c r="ED83" s="16"/>
+      <c r="EE83" s="16"/>
+      <c r="EF83" s="16"/>
+      <c r="EG83" s="16"/>
+      <c r="EH83" s="16"/>
+      <c r="EI83" s="16"/>
+      <c r="EJ83" s="16"/>
+      <c r="EK83" s="16"/>
+      <c r="EL83" s="16"/>
+      <c r="EM83" s="16"/>
+      <c r="EN83" s="16"/>
+      <c r="EO83" s="16"/>
+      <c r="EP83" s="16"/>
+      <c r="EQ83" s="16"/>
+      <c r="ER83" s="16"/>
+      <c r="ES83" s="16"/>
     </row>
     <row r="84" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="1"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="AR84" s="1"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21">
+        <v>16504</v>
+      </c>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="16"/>
+      <c r="AC84" s="16"/>
+      <c r="AD84" s="16"/>
+      <c r="AE84" s="16"/>
+      <c r="AF84" s="16"/>
+      <c r="AG84" s="16"/>
+      <c r="AH84" s="16"/>
+      <c r="AI84" s="16"/>
+      <c r="AJ84" s="16"/>
+      <c r="AK84" s="16"/>
+      <c r="AL84" s="16"/>
+      <c r="AM84" s="16"/>
+      <c r="AN84" s="16"/>
+      <c r="AO84" s="16"/>
+      <c r="AP84" s="16"/>
+      <c r="AQ84" s="16"/>
+      <c r="AR84" s="16"/>
+      <c r="AS84" s="16"/>
+      <c r="AT84" s="16"/>
+      <c r="AU84" s="16"/>
+      <c r="AV84" s="16"/>
+      <c r="AW84" s="16"/>
+      <c r="AX84" s="16"/>
+      <c r="AY84" s="16"/>
+      <c r="AZ84" s="16"/>
+      <c r="BA84" s="16"/>
+      <c r="BB84" s="16"/>
+      <c r="BC84" s="16"/>
+      <c r="BD84" s="16"/>
+      <c r="BE84" s="16"/>
+      <c r="BF84" s="16"/>
+      <c r="BG84" s="16"/>
+      <c r="BH84" s="16"/>
+      <c r="BI84" s="16"/>
+      <c r="BJ84" s="16"/>
+      <c r="BK84" s="16"/>
+      <c r="BL84" s="16"/>
+      <c r="BM84" s="16"/>
+      <c r="BN84" s="16"/>
+      <c r="BO84" s="16"/>
+      <c r="BP84" s="16"/>
+      <c r="BQ84" s="16"/>
+      <c r="BR84" s="16"/>
+      <c r="BS84" s="16"/>
+      <c r="BT84" s="16"/>
+      <c r="BU84" s="16"/>
+      <c r="BV84" s="16"/>
+      <c r="BW84" s="16"/>
+      <c r="BX84" s="16"/>
+      <c r="BY84" s="16"/>
+      <c r="BZ84" s="16"/>
+      <c r="CA84" s="16"/>
+      <c r="CB84" s="16"/>
+      <c r="CC84" s="16"/>
+      <c r="CD84" s="16"/>
+      <c r="CE84" s="16"/>
+      <c r="CF84" s="16"/>
+      <c r="CG84" s="16"/>
+      <c r="CH84" s="16"/>
+      <c r="CI84" s="16"/>
+      <c r="CJ84" s="16"/>
+      <c r="CK84" s="16"/>
+      <c r="CL84" s="16"/>
+      <c r="CM84" s="16"/>
+      <c r="CN84" s="16"/>
+      <c r="CO84" s="16"/>
+      <c r="CP84" s="16"/>
+      <c r="CQ84" s="16"/>
+      <c r="CR84" s="16"/>
+      <c r="CS84" s="16"/>
+      <c r="CT84" s="16"/>
+      <c r="CU84" s="16"/>
+      <c r="CV84" s="16"/>
+      <c r="CW84" s="16"/>
+      <c r="CX84" s="16"/>
+      <c r="CY84" s="16"/>
+      <c r="CZ84" s="16"/>
+      <c r="DA84" s="16"/>
+      <c r="DB84" s="16"/>
+      <c r="DC84" s="16"/>
+      <c r="DD84" s="16"/>
+      <c r="DE84" s="16"/>
+      <c r="DF84" s="16"/>
+      <c r="DG84" s="16"/>
+      <c r="DH84" s="16"/>
+      <c r="DI84" s="16"/>
+      <c r="DJ84" s="16"/>
+      <c r="DK84" s="16"/>
+      <c r="DL84" s="16"/>
+      <c r="DM84" s="16"/>
+      <c r="DN84" s="16"/>
+      <c r="DO84" s="16"/>
+      <c r="DP84" s="16"/>
+      <c r="DQ84" s="16"/>
+      <c r="DR84" s="16"/>
+      <c r="DS84" s="16"/>
+      <c r="DT84" s="16"/>
+      <c r="DU84" s="16"/>
+      <c r="DV84" s="16"/>
+      <c r="DW84" s="16"/>
+      <c r="DX84" s="16"/>
+      <c r="DY84" s="16"/>
+      <c r="DZ84" s="16"/>
+      <c r="EA84" s="16"/>
+      <c r="EB84" s="16"/>
+      <c r="EC84" s="16"/>
+      <c r="ED84" s="16"/>
+      <c r="EE84" s="16"/>
+      <c r="EF84" s="16"/>
+      <c r="EG84" s="16"/>
+      <c r="EH84" s="16"/>
+      <c r="EI84" s="16"/>
+      <c r="EJ84" s="16"/>
+      <c r="EK84" s="16"/>
+      <c r="EL84" s="16"/>
+      <c r="EM84" s="16"/>
+      <c r="EN84" s="16"/>
+      <c r="EO84" s="16"/>
+      <c r="EP84" s="16"/>
+      <c r="EQ84" s="16"/>
+      <c r="ER84" s="16"/>
+      <c r="ES84" s="16"/>
     </row>
     <row r="85" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="1"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="AR85" s="1"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21">
+        <v>8099</v>
+      </c>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="16"/>
+      <c r="AC85" s="16"/>
+      <c r="AD85" s="16"/>
+      <c r="AE85" s="16"/>
+      <c r="AF85" s="16"/>
+      <c r="AG85" s="16"/>
+      <c r="AH85" s="16"/>
+      <c r="AI85" s="16"/>
+      <c r="AJ85" s="16"/>
+      <c r="AK85" s="16"/>
+      <c r="AL85" s="16"/>
+      <c r="AM85" s="16"/>
+      <c r="AN85" s="16"/>
+      <c r="AO85" s="16"/>
+      <c r="AP85" s="16"/>
+      <c r="AQ85" s="16"/>
+      <c r="AR85" s="16"/>
+      <c r="AS85" s="16"/>
+      <c r="AT85" s="16"/>
+      <c r="AU85" s="16"/>
+      <c r="AV85" s="16"/>
+      <c r="AW85" s="16"/>
+      <c r="AX85" s="16"/>
+      <c r="AY85" s="16"/>
+      <c r="AZ85" s="16"/>
+      <c r="BA85" s="16"/>
+      <c r="BB85" s="16"/>
+      <c r="BC85" s="16"/>
+      <c r="BD85" s="16"/>
+      <c r="BE85" s="16"/>
+      <c r="BF85" s="16"/>
+      <c r="BG85" s="16"/>
+      <c r="BH85" s="16"/>
+      <c r="BI85" s="16"/>
+      <c r="BJ85" s="16"/>
+      <c r="BK85" s="16"/>
+      <c r="BL85" s="16"/>
+      <c r="BM85" s="16"/>
+      <c r="BN85" s="16"/>
+      <c r="BO85" s="16"/>
+      <c r="BP85" s="16"/>
+      <c r="BQ85" s="16"/>
+      <c r="BR85" s="16"/>
+      <c r="BS85" s="16"/>
+      <c r="BT85" s="16"/>
+      <c r="BU85" s="16"/>
+      <c r="BV85" s="16"/>
+      <c r="BW85" s="16"/>
+      <c r="BX85" s="16"/>
+      <c r="BY85" s="16"/>
+      <c r="BZ85" s="16"/>
+      <c r="CA85" s="16"/>
+      <c r="CB85" s="16"/>
+      <c r="CC85" s="16"/>
+      <c r="CD85" s="16"/>
+      <c r="CE85" s="16"/>
+      <c r="CF85" s="16"/>
+      <c r="CG85" s="16"/>
+      <c r="CH85" s="16"/>
+      <c r="CI85" s="16"/>
+      <c r="CJ85" s="16"/>
+      <c r="CK85" s="16"/>
+      <c r="CL85" s="16"/>
+      <c r="CM85" s="16"/>
+      <c r="CN85" s="16"/>
+      <c r="CO85" s="16"/>
+      <c r="CP85" s="16"/>
+      <c r="CQ85" s="16"/>
+      <c r="CR85" s="16"/>
+      <c r="CS85" s="16"/>
+      <c r="CT85" s="16"/>
+      <c r="CU85" s="16"/>
+      <c r="CV85" s="16"/>
+      <c r="CW85" s="16"/>
+      <c r="CX85" s="16"/>
+      <c r="CY85" s="16"/>
+      <c r="CZ85" s="16"/>
+      <c r="DA85" s="16"/>
+      <c r="DB85" s="16"/>
+      <c r="DC85" s="16"/>
+      <c r="DD85" s="16"/>
+      <c r="DE85" s="16"/>
+      <c r="DF85" s="16"/>
+      <c r="DG85" s="16"/>
+      <c r="DH85" s="16"/>
+      <c r="DI85" s="16"/>
+      <c r="DJ85" s="16"/>
+      <c r="DK85" s="16"/>
+      <c r="DL85" s="16"/>
+      <c r="DM85" s="16"/>
+      <c r="DN85" s="16"/>
+      <c r="DO85" s="16"/>
+      <c r="DP85" s="16"/>
+      <c r="DQ85" s="16"/>
+      <c r="DR85" s="16"/>
+      <c r="DS85" s="16"/>
+      <c r="DT85" s="16"/>
+      <c r="DU85" s="16"/>
+      <c r="DV85" s="16"/>
+      <c r="DW85" s="16"/>
+      <c r="DX85" s="16"/>
+      <c r="DY85" s="16"/>
+      <c r="DZ85" s="16"/>
+      <c r="EA85" s="16"/>
+      <c r="EB85" s="16"/>
+      <c r="EC85" s="16"/>
+      <c r="ED85" s="16"/>
+      <c r="EE85" s="16"/>
+      <c r="EF85" s="16"/>
+      <c r="EG85" s="16"/>
+      <c r="EH85" s="16"/>
+      <c r="EI85" s="16"/>
+      <c r="EJ85" s="16"/>
+      <c r="EK85" s="16"/>
+      <c r="EL85" s="16"/>
+      <c r="EM85" s="16"/>
+      <c r="EN85" s="16"/>
+      <c r="EO85" s="16"/>
+      <c r="EP85" s="16"/>
+      <c r="EQ85" s="16"/>
+      <c r="ER85" s="16"/>
+      <c r="ES85" s="16"/>
     </row>
     <row r="86" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="1"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="AR86" s="1"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21">
+        <v>14424</v>
+      </c>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="16"/>
+      <c r="AC86" s="16"/>
+      <c r="AD86" s="16"/>
+      <c r="AE86" s="16"/>
+      <c r="AF86" s="16"/>
+      <c r="AG86" s="16"/>
+      <c r="AH86" s="16"/>
+      <c r="AI86" s="16"/>
+      <c r="AJ86" s="16"/>
+      <c r="AK86" s="16"/>
+      <c r="AL86" s="16"/>
+      <c r="AM86" s="16"/>
+      <c r="AN86" s="16"/>
+      <c r="AO86" s="16"/>
+      <c r="AP86" s="16"/>
+      <c r="AQ86" s="16"/>
+      <c r="AR86" s="16"/>
+      <c r="AS86" s="16"/>
+      <c r="AT86" s="16"/>
+      <c r="AU86" s="16"/>
+      <c r="AV86" s="16"/>
+      <c r="AW86" s="16"/>
+      <c r="AX86" s="16"/>
+      <c r="AY86" s="16"/>
+      <c r="AZ86" s="16"/>
+      <c r="BA86" s="16"/>
+      <c r="BB86" s="16"/>
+      <c r="BC86" s="16"/>
+      <c r="BD86" s="16"/>
+      <c r="BE86" s="16"/>
+      <c r="BF86" s="16"/>
+      <c r="BG86" s="16"/>
+      <c r="BH86" s="16"/>
+      <c r="BI86" s="16"/>
+      <c r="BJ86" s="16"/>
+      <c r="BK86" s="16"/>
+      <c r="BL86" s="16"/>
+      <c r="BM86" s="16"/>
+      <c r="BN86" s="16"/>
+      <c r="BO86" s="16"/>
+      <c r="BP86" s="16"/>
+      <c r="BQ86" s="16"/>
+      <c r="BR86" s="16"/>
+      <c r="BS86" s="16"/>
+      <c r="BT86" s="16"/>
+      <c r="BU86" s="16"/>
+      <c r="BV86" s="16"/>
+      <c r="BW86" s="16"/>
+      <c r="BX86" s="16"/>
+      <c r="BY86" s="16"/>
+      <c r="BZ86" s="16"/>
+      <c r="CA86" s="16"/>
+      <c r="CB86" s="16"/>
+      <c r="CC86" s="16"/>
+      <c r="CD86" s="16"/>
+      <c r="CE86" s="16"/>
+      <c r="CF86" s="16"/>
+      <c r="CG86" s="16"/>
+      <c r="CH86" s="16"/>
+      <c r="CI86" s="16"/>
+      <c r="CJ86" s="16"/>
+      <c r="CK86" s="16"/>
+      <c r="CL86" s="16"/>
+      <c r="CM86" s="16"/>
+      <c r="CN86" s="16"/>
+      <c r="CO86" s="16"/>
+      <c r="CP86" s="16"/>
+      <c r="CQ86" s="16"/>
+      <c r="CR86" s="16"/>
+      <c r="CS86" s="16"/>
+      <c r="CT86" s="16"/>
+      <c r="CU86" s="16"/>
+      <c r="CV86" s="16"/>
+      <c r="CW86" s="16"/>
+      <c r="CX86" s="16"/>
+      <c r="CY86" s="16"/>
+      <c r="CZ86" s="16"/>
+      <c r="DA86" s="16"/>
+      <c r="DB86" s="16"/>
+      <c r="DC86" s="16"/>
+      <c r="DD86" s="16"/>
+      <c r="DE86" s="16"/>
+      <c r="DF86" s="16"/>
+      <c r="DG86" s="16"/>
+      <c r="DH86" s="16"/>
+      <c r="DI86" s="16"/>
+      <c r="DJ86" s="16"/>
+      <c r="DK86" s="16"/>
+      <c r="DL86" s="16"/>
+      <c r="DM86" s="16"/>
+      <c r="DN86" s="16"/>
+      <c r="DO86" s="16"/>
+      <c r="DP86" s="16"/>
+      <c r="DQ86" s="16"/>
+      <c r="DR86" s="16"/>
+      <c r="DS86" s="16"/>
+      <c r="DT86" s="16"/>
+      <c r="DU86" s="16"/>
+      <c r="DV86" s="16"/>
+      <c r="DW86" s="16"/>
+      <c r="DX86" s="16"/>
+      <c r="DY86" s="16"/>
+      <c r="DZ86" s="16"/>
+      <c r="EA86" s="16"/>
+      <c r="EB86" s="16"/>
+      <c r="EC86" s="16"/>
+      <c r="ED86" s="16"/>
+      <c r="EE86" s="16"/>
+      <c r="EF86" s="16"/>
+      <c r="EG86" s="16"/>
+      <c r="EH86" s="16"/>
+      <c r="EI86" s="16"/>
+      <c r="EJ86" s="16"/>
+      <c r="EK86" s="16"/>
+      <c r="EL86" s="16"/>
+      <c r="EM86" s="16"/>
+      <c r="EN86" s="16"/>
+      <c r="EO86" s="16"/>
+      <c r="EP86" s="16"/>
+      <c r="EQ86" s="16"/>
+      <c r="ER86" s="16"/>
+      <c r="ES86" s="16"/>
     </row>
     <row r="87" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="1"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="AR87" s="1"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21">
+        <f>SUM(N78:N86)</f>
+        <v>110496</v>
+      </c>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="16"/>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="16"/>
+      <c r="AB87" s="16"/>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="16"/>
+      <c r="AE87" s="16"/>
+      <c r="AF87" s="16"/>
+      <c r="AG87" s="16"/>
+      <c r="AH87" s="16"/>
+      <c r="AI87" s="16"/>
+      <c r="AJ87" s="16"/>
+      <c r="AK87" s="16"/>
+      <c r="AL87" s="16"/>
+      <c r="AM87" s="16"/>
+      <c r="AN87" s="16"/>
+      <c r="AO87" s="16"/>
+      <c r="AP87" s="16"/>
+      <c r="AQ87" s="16"/>
+      <c r="AR87" s="16"/>
+      <c r="AS87" s="16"/>
+      <c r="AT87" s="16"/>
+      <c r="AU87" s="16"/>
+      <c r="AV87" s="16"/>
+      <c r="AW87" s="16"/>
+      <c r="AX87" s="16"/>
+      <c r="AY87" s="16"/>
+      <c r="AZ87" s="16"/>
+      <c r="BA87" s="16"/>
+      <c r="BB87" s="16"/>
+      <c r="BC87" s="16"/>
+      <c r="BD87" s="16"/>
+      <c r="BE87" s="16"/>
+      <c r="BF87" s="16"/>
+      <c r="BG87" s="16"/>
+      <c r="BH87" s="16"/>
+      <c r="BI87" s="16"/>
+      <c r="BJ87" s="16"/>
+      <c r="BK87" s="16"/>
+      <c r="BL87" s="16"/>
+      <c r="BM87" s="16"/>
+      <c r="BN87" s="16"/>
+      <c r="BO87" s="16"/>
+      <c r="BP87" s="16"/>
+      <c r="BQ87" s="16"/>
+      <c r="BR87" s="16"/>
+      <c r="BS87" s="16"/>
+      <c r="BT87" s="16"/>
+      <c r="BU87" s="16"/>
+      <c r="BV87" s="16"/>
+      <c r="BW87" s="16"/>
+      <c r="BX87" s="16"/>
+      <c r="BY87" s="16"/>
+      <c r="BZ87" s="16"/>
+      <c r="CA87" s="16"/>
+      <c r="CB87" s="16"/>
+      <c r="CC87" s="16"/>
+      <c r="CD87" s="16"/>
+      <c r="CE87" s="16"/>
+      <c r="CF87" s="16"/>
+      <c r="CG87" s="16"/>
+      <c r="CH87" s="16"/>
+      <c r="CI87" s="16"/>
+      <c r="CJ87" s="16"/>
+      <c r="CK87" s="16"/>
+      <c r="CL87" s="16"/>
+      <c r="CM87" s="16"/>
+      <c r="CN87" s="16"/>
+      <c r="CO87" s="16"/>
+      <c r="CP87" s="16"/>
+      <c r="CQ87" s="16"/>
+      <c r="CR87" s="16"/>
+      <c r="CS87" s="16"/>
+      <c r="CT87" s="16"/>
+      <c r="CU87" s="16"/>
+      <c r="CV87" s="16"/>
+      <c r="CW87" s="16"/>
+      <c r="CX87" s="16"/>
+      <c r="CY87" s="16"/>
+      <c r="CZ87" s="16"/>
+      <c r="DA87" s="16"/>
+      <c r="DB87" s="16"/>
+      <c r="DC87" s="16"/>
+      <c r="DD87" s="16"/>
+      <c r="DE87" s="16"/>
+      <c r="DF87" s="16"/>
+      <c r="DG87" s="16"/>
+      <c r="DH87" s="16"/>
+      <c r="DI87" s="16"/>
+      <c r="DJ87" s="16"/>
+      <c r="DK87" s="16"/>
+      <c r="DL87" s="16"/>
+      <c r="DM87" s="16"/>
+      <c r="DN87" s="16"/>
+      <c r="DO87" s="16"/>
+      <c r="DP87" s="16"/>
+      <c r="DQ87" s="16"/>
+      <c r="DR87" s="16"/>
+      <c r="DS87" s="16"/>
+      <c r="DT87" s="16"/>
+      <c r="DU87" s="16"/>
+      <c r="DV87" s="16"/>
+      <c r="DW87" s="16"/>
+      <c r="DX87" s="16"/>
+      <c r="DY87" s="16"/>
+      <c r="DZ87" s="16"/>
+      <c r="EA87" s="16"/>
+      <c r="EB87" s="16"/>
+      <c r="EC87" s="16"/>
+      <c r="ED87" s="16"/>
+      <c r="EE87" s="16"/>
+      <c r="EF87" s="16"/>
+      <c r="EG87" s="16"/>
+      <c r="EH87" s="16"/>
+      <c r="EI87" s="16"/>
+      <c r="EJ87" s="16"/>
+      <c r="EK87" s="16"/>
+      <c r="EL87" s="16"/>
+      <c r="EM87" s="16"/>
+      <c r="EN87" s="16"/>
+      <c r="EO87" s="16"/>
+      <c r="EP87" s="16"/>
+      <c r="EQ87" s="16"/>
+      <c r="ER87" s="16"/>
+      <c r="ES87" s="16"/>
     </row>
     <row r="88" spans="1:149" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="1"/>
@@ -37773,6 +38483,106 @@
       <c r="R1009" s="5"/>
       <c r="AR1009" s="1"/>
     </row>
+    <row r="1010" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="5"/>
+      <c r="E1010" s="5"/>
+      <c r="F1010" s="5"/>
+      <c r="G1010" s="5"/>
+      <c r="H1010" s="5"/>
+      <c r="I1010" s="5"/>
+      <c r="J1010" s="5"/>
+      <c r="K1010" s="5"/>
+      <c r="L1010" s="5"/>
+      <c r="M1010" s="5"/>
+      <c r="N1010" s="5"/>
+      <c r="O1010" s="5"/>
+      <c r="P1010" s="5"/>
+      <c r="Q1010" s="5"/>
+      <c r="R1010" s="5"/>
+      <c r="AR1010" s="1"/>
+    </row>
+    <row r="1011" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="5"/>
+      <c r="E1011" s="5"/>
+      <c r="F1011" s="5"/>
+      <c r="G1011" s="5"/>
+      <c r="H1011" s="5"/>
+      <c r="I1011" s="5"/>
+      <c r="J1011" s="5"/>
+      <c r="K1011" s="5"/>
+      <c r="L1011" s="5"/>
+      <c r="M1011" s="5"/>
+      <c r="N1011" s="5"/>
+      <c r="O1011" s="5"/>
+      <c r="P1011" s="5"/>
+      <c r="Q1011" s="5"/>
+      <c r="R1011" s="5"/>
+      <c r="AR1011" s="1"/>
+    </row>
+    <row r="1012" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="5"/>
+      <c r="E1012" s="5"/>
+      <c r="F1012" s="5"/>
+      <c r="G1012" s="5"/>
+      <c r="H1012" s="5"/>
+      <c r="I1012" s="5"/>
+      <c r="J1012" s="5"/>
+      <c r="K1012" s="5"/>
+      <c r="L1012" s="5"/>
+      <c r="M1012" s="5"/>
+      <c r="N1012" s="5"/>
+      <c r="O1012" s="5"/>
+      <c r="P1012" s="5"/>
+      <c r="Q1012" s="5"/>
+      <c r="R1012" s="5"/>
+      <c r="AR1012" s="1"/>
+    </row>
+    <row r="1013" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
+      <c r="E1013" s="5"/>
+      <c r="F1013" s="5"/>
+      <c r="G1013" s="5"/>
+      <c r="H1013" s="5"/>
+      <c r="I1013" s="5"/>
+      <c r="J1013" s="5"/>
+      <c r="K1013" s="5"/>
+      <c r="L1013" s="5"/>
+      <c r="M1013" s="5"/>
+      <c r="N1013" s="5"/>
+      <c r="O1013" s="5"/>
+      <c r="P1013" s="5"/>
+      <c r="Q1013" s="5"/>
+      <c r="R1013" s="5"/>
+      <c r="AR1013" s="1"/>
+    </row>
+    <row r="1014" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+      <c r="E1014" s="5"/>
+      <c r="F1014" s="5"/>
+      <c r="G1014" s="5"/>
+      <c r="H1014" s="5"/>
+      <c r="I1014" s="5"/>
+      <c r="J1014" s="5"/>
+      <c r="K1014" s="5"/>
+      <c r="L1014" s="5"/>
+      <c r="M1014" s="5"/>
+      <c r="N1014" s="5"/>
+      <c r="O1014" s="5"/>
+      <c r="P1014" s="5"/>
+      <c r="Q1014" s="5"/>
+      <c r="R1014" s="5"/>
+      <c r="AR1014" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
